--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46475.83545005787</v>
+        <v>40384.49896097682</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24568897.93367708</v>
+        <v>23882539.65431007</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9104164.505839057</v>
+        <v>9122614.994420813</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4859624.513146055</v>
+        <v>4881776.025183775</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>375.9790740437533</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>126.0741957323711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
-        <v>93.17921052631581</v>
+        <v>93.17921052631583</v>
       </c>
       <c r="F3" t="n">
         <v>82.55</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>14.69254647175497</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>263.2961755574959</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.1480050984106</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>119.3489943876002</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>115.4012337133193</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1107,16 +1107,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>105.7901723702887</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>290.9044362257064</v>
       </c>
       <c r="C8" t="n">
         <v>424.2958575201043</v>
@@ -1141,7 +1141,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>81.97007862450535</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>169.8763193686079</v>
       </c>
       <c r="G10" t="n">
-        <v>142.6684443174577</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>407.2606697395771</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>383.3590907834183</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1463,10 +1463,10 @@
         <v>82.55</v>
       </c>
       <c r="G12" t="n">
-        <v>84.53123883647795</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H12" t="n">
-        <v>41.31829566194963</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>62.82088317610085</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T12" t="n">
-        <v>128.8768572327044</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U12" t="n">
-        <v>174.5731815300314</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V12" t="n">
         <v>197.1263427586206</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>115.4012337133193</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>159.1208161649416</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3731502167427</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>85.23327057534622</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>323.56672224902</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1770,10 +1770,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.62897272389382</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.5652879271376</v>
+        <v>1.826476192061491</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>148.8632383867175</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>333.2230425373496</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>203.3072905513864</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>397.3731502167427</v>
       </c>
       <c r="H17" t="n">
-        <v>286.1292424873029</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>63.49068919393356</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>173.6635976287122</v>
       </c>
     </row>
     <row r="20">
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>38.14458198693705</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3731502167427</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>286.1292424873029</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.5714639696243</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.819703146337</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>5.277680572481437</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9305612960722</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>159.5831179448178</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>38.02059584680417</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>32.3122245513128</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>389.0682502241356</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>397.3731502167427</v>
@@ -2608,10 +2608,10 @@
         <v>82.5714639696243</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6292234284552</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2620,10 +2620,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2730,7 +2730,7 @@
         <v>163.9305612960722</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>22.74710563292977</v>
       </c>
       <c r="T28" t="n">
-        <v>127.6867765837843</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U28" t="n">
         <v>275.6484088706061</v>
@@ -2794,7 +2794,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>318.1544933312641</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>137.2981715862084</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U29" t="n">
         <v>256.6292234284552</v>
@@ -2857,10 +2857,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9305612960722</v>
+        <v>46.4230772288256</v>
       </c>
       <c r="H31" t="n">
         <v>138.4604679489429</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T31" t="n">
-        <v>243.400138899798</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>51.31829794593101</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>171.2485470777984</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>397.3731502167427</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.5714639696243</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>217.819703146337</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6292234284552</v>
+        <v>114.8836885209373</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3094,10 +3094,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3204,7 +3204,7 @@
         <v>163.9305612960722</v>
       </c>
       <c r="H34" t="n">
-        <v>29.40103057628426</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.5652879271376</v>
+        <v>22.74710563292977</v>
       </c>
       <c r="T34" t="n">
         <v>243.400138899798</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>190.63403990934</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>397.3731502167427</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>64.49608947262566</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3426,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9305612960722</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I37" t="n">
-        <v>1.759329748161667</v>
+        <v>40.50022956976129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>20.98777588476758</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T37" t="n">
         <v>243.400138899798</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>273.2055038789641</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>43.38057133554662</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3663,10 +3663,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>131.7129722321923</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9305612960722</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4604679489429</v>
+        <v>29.11237900186442</v>
       </c>
       <c r="I40" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T40" t="n">
         <v>243.400138899798</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>53.01379186606822</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>397.3731502167427</v>
       </c>
       <c r="H41" t="n">
-        <v>286.1292424873029</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.57146396962432</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.819703146337</v>
@@ -3799,13 +3799,13 @@
         <v>256.6292234284552</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>190.6340399093394</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3836,7 +3836,7 @@
         <v>84.52551230889576</v>
       </c>
       <c r="H42" t="n">
-        <v>41.26298946135318</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>62.71451543789637</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T42" t="n">
         <v>128.8537753079323</v>
@@ -3906,16 +3906,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9305612960722</v>
+        <v>29.11237900186442</v>
       </c>
       <c r="H43" t="n">
-        <v>33.24224141756186</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.5652879271377</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T43" t="n">
         <v>243.400138899798</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>251.6818168191854</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>250.4236486271568</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4070,10 +4070,10 @@
         <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>83.52738940623971</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306971</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.17482029426311</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T45" t="n">
-        <v>124.8306395731037</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5071388043578</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V45" t="n">
         <v>197.1263427586206</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>206.1652192923995</v>
+        <v>137.1531489185919</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>323.0738231583921</v>
+        <v>1270.883859595509</v>
       </c>
       <c r="C2" t="n">
-        <v>323.0738231583921</v>
+        <v>842.3021853327778</v>
       </c>
       <c r="D2" t="n">
-        <v>323.0738231583921</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4360,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>855.2769502042993</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>450.4214956153326</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>450.4214956153326</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y2" t="n">
-        <v>323.0738231583921</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4415,19 +4415,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>685.9021756729128</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="C4" t="n">
-        <v>685.9021756729128</v>
+        <v>778.5740196905466</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>612.6960268920693</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>442.9380231428066</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4497,10 +4497,10 @@
         <v>395.2818083374338</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="N4" t="n">
-        <v>815.3347072823371</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1451.303983658873</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V4" t="n">
-        <v>1185.348250772513</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W4" t="n">
-        <v>913.3218463588046</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="X4" t="n">
-        <v>913.3218463588046</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="Y4" t="n">
-        <v>685.9021756729128</v>
+        <v>951.1357312073217</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>457.7422813061962</v>
+        <v>1011.661556912526</v>
       </c>
       <c r="C5" t="n">
-        <v>457.7422813061962</v>
+        <v>1011.661556912526</v>
       </c>
       <c r="D5" t="n">
-        <v>34.36045797446834</v>
+        <v>583.0798826497947</v>
       </c>
       <c r="E5" t="n">
-        <v>34.36045797446834</v>
+        <v>154.4982083870631</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4570,16 +4570,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O5" t="n">
         <v>687.9235674375537</v>
@@ -4600,19 +4600,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="X5" t="n">
-        <v>1292.327975491451</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="Y5" t="n">
-        <v>884.041851791104</v>
+        <v>1437.961127397434</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>604.8041211489747</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C7" t="n">
-        <v>604.8041211489747</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8041211489747</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E7" t="n">
         <v>604.8041211489747</v>
@@ -4731,13 +4731,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N7" t="n">
-        <v>815.3347072823371</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4755,22 +4755,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U7" t="n">
-        <v>1163.786033692253</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V7" t="n">
-        <v>876.8305255626831</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W7" t="n">
-        <v>604.8041211489747</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="X7" t="n">
-        <v>604.8041211489747</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="Y7" t="n">
-        <v>604.8041211489747</v>
+        <v>1229.568731954216</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>891.5238064999317</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="C8" t="n">
-        <v>462.9421322372</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D8" t="n">
-        <v>34.36045797446834</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
         <v>687.9235674375537</v>
@@ -4834,22 +4834,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U8" t="n">
-        <v>1310.666269920621</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V8" t="n">
-        <v>1310.666269920621</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W8" t="n">
-        <v>1310.666269920621</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="X8" t="n">
-        <v>891.5238064999317</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="Y8" t="n">
-        <v>891.5238064999317</v>
+        <v>1613.531556264254</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4889,19 +4889,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q9" t="n">
         <v>1580.010651986078</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>406.6153318511622</v>
+        <v>632.348846104353</v>
       </c>
       <c r="C10" t="n">
-        <v>406.6153318511622</v>
+        <v>459.787134587578</v>
       </c>
       <c r="D10" t="n">
-        <v>406.6153318511622</v>
+        <v>459.787134587578</v>
       </c>
       <c r="E10" t="n">
-        <v>406.6153318511622</v>
+        <v>459.787134587578</v>
       </c>
       <c r="F10" t="n">
-        <v>406.6153318511622</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H10" t="n">
         <v>122.603617826933</v>
@@ -4968,13 +4968,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>395.2818083374338</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M10" t="n">
-        <v>815.3347072823371</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N10" t="n">
-        <v>815.3347072823371</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O10" t="n">
         <v>1181.483761245743</v>
@@ -4986,28 +4986,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T10" t="n">
-        <v>1429.886162364244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U10" t="n">
-        <v>1151.45316161735</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V10" t="n">
-        <v>1151.45316161735</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W10" t="n">
-        <v>879.4267572036415</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="X10" t="n">
-        <v>634.035002537054</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="Y10" t="n">
-        <v>406.6153318511622</v>
+        <v>632.348846104353</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1278.040966659728</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="C11" t="n">
-        <v>1278.040966659728</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="D11" t="n">
-        <v>849.4592923969963</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="E11" t="n">
-        <v>849.4592923969963</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F11" t="n">
-        <v>421.591862806204</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G11" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H11" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I11" t="n">
         <v>33.94366860160834</v>
@@ -5044,25 +5044,25 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K11" t="n">
-        <v>453.9965675465116</v>
+        <v>455.3443953003875</v>
       </c>
       <c r="L11" t="n">
-        <v>453.9965675465116</v>
+        <v>875.3972942452907</v>
       </c>
       <c r="M11" t="n">
-        <v>453.9965675465116</v>
+        <v>877.2578271312141</v>
       </c>
       <c r="N11" t="n">
-        <v>453.9965675465116</v>
+        <v>879.1484653843588</v>
       </c>
       <c r="O11" t="n">
-        <v>687.9235674375537</v>
+        <v>1299.201364329262</v>
       </c>
       <c r="P11" t="n">
-        <v>1107.976466382457</v>
+        <v>1300.725056168473</v>
       </c>
       <c r="Q11" t="n">
-        <v>1528.02936532736</v>
+        <v>1696.51784054281</v>
       </c>
       <c r="R11" t="n">
         <v>1697.183430080417</v>
@@ -5080,13 +5080,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X11" t="n">
-        <v>1278.040966659728</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y11" t="n">
-        <v>1278.040966659728</v>
+        <v>873.1855120707613</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>540.1154135929012</v>
+        <v>540.0537643725186</v>
       </c>
       <c r="C12" t="n">
-        <v>433.6589524295435</v>
+        <v>433.5973032091609</v>
       </c>
       <c r="D12" t="n">
-        <v>338.5686635760967</v>
+        <v>338.5070143557141</v>
       </c>
       <c r="E12" t="n">
-        <v>244.4482489030504</v>
+        <v>244.3865996826678</v>
       </c>
       <c r="F12" t="n">
-        <v>161.064410519212</v>
+        <v>161.0027612988295</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539586</v>
+        <v>75.62345593630852</v>
       </c>
       <c r="H12" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I12" t="n">
-        <v>60.00734176206595</v>
+        <v>60.20253346866699</v>
       </c>
       <c r="J12" t="n">
-        <v>384.5656667282782</v>
+        <v>385.2964793969039</v>
       </c>
       <c r="K12" t="n">
-        <v>804.6185656731816</v>
+        <v>805.3493783418072</v>
       </c>
       <c r="L12" t="n">
-        <v>804.6185656731816</v>
+        <v>1154.070589890935</v>
       </c>
       <c r="M12" t="n">
-        <v>804.6185656731816</v>
+        <v>1155.507051660405</v>
       </c>
       <c r="N12" t="n">
-        <v>804.6185656731816</v>
+        <v>1156.981532298588</v>
       </c>
       <c r="O12" t="n">
-        <v>804.6185656731816</v>
+        <v>1158.330394019351</v>
       </c>
       <c r="P12" t="n">
-        <v>1159.957753041174</v>
+        <v>1159.412974468012</v>
       </c>
       <c r="Q12" t="n">
-        <v>1580.010651986078</v>
+        <v>1579.465873412916</v>
       </c>
       <c r="R12" t="n">
-        <v>1697.183430080417</v>
+        <v>1696.990643073962</v>
       </c>
       <c r="S12" t="n">
-        <v>1633.7279925288</v>
+        <v>1633.642647682147</v>
       </c>
       <c r="T12" t="n">
-        <v>1503.549348859402</v>
+        <v>1503.487319088276</v>
       </c>
       <c r="U12" t="n">
-        <v>1327.21280185937</v>
+        <v>1327.151152638988</v>
       </c>
       <c r="V12" t="n">
-        <v>1128.09528392137</v>
+        <v>1128.033634700987</v>
       </c>
       <c r="W12" t="n">
-        <v>942.7725296545636</v>
+        <v>942.710880434181</v>
       </c>
       <c r="X12" t="n">
-        <v>787.9050938934436</v>
+        <v>787.843444673061</v>
       </c>
       <c r="Y12" t="n">
-        <v>661.4193146726643</v>
+        <v>661.3576654522817</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1113.00182921349</v>
+        <v>194.671765737913</v>
       </c>
       <c r="C13" t="n">
-        <v>940.4401176967148</v>
+        <v>194.671765737913</v>
       </c>
       <c r="D13" t="n">
-        <v>774.5621248982375</v>
+        <v>194.671765737913</v>
       </c>
       <c r="E13" t="n">
-        <v>604.8041211489747</v>
+        <v>194.671765737913</v>
       </c>
       <c r="F13" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G13" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H13" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I13" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>33.94366860160834</v>
+        <v>120.8593851448866</v>
       </c>
       <c r="K13" t="n">
-        <v>33.94366860160834</v>
+        <v>121.4115879246679</v>
       </c>
       <c r="L13" t="n">
-        <v>341.7616130750586</v>
+        <v>122.118217366025</v>
       </c>
       <c r="M13" t="n">
-        <v>341.7616130750586</v>
+        <v>542.1711163109284</v>
       </c>
       <c r="N13" t="n">
-        <v>761.8145120199619</v>
+        <v>962.2240152558315</v>
       </c>
       <c r="O13" t="n">
-        <v>1181.483761245743</v>
+        <v>1382.276914200735</v>
       </c>
       <c r="P13" t="n">
-        <v>1528.990655216085</v>
+        <v>1528.592663056103</v>
       </c>
       <c r="Q13" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S13" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T13" t="n">
-        <v>1516.524240083786</v>
+        <v>1451.324703919005</v>
       </c>
       <c r="U13" t="n">
-        <v>1516.524240083786</v>
+        <v>1172.89196768607</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.568731954216</v>
+        <v>885.9364595565003</v>
       </c>
       <c r="W13" t="n">
-        <v>1229.568731954216</v>
+        <v>613.9100551427919</v>
       </c>
       <c r="X13" t="n">
-        <v>1229.568731954216</v>
+        <v>613.9100551427919</v>
       </c>
       <c r="Y13" t="n">
-        <v>1229.568731954216</v>
+        <v>386.4903844569001</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>521.4249017249305</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="C14" t="n">
-        <v>521.4249017249305</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D14" t="n">
-        <v>521.4249017249305</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E14" t="n">
-        <v>521.4249017249305</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F14" t="n">
-        <v>521.4249017249305</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G14" t="n">
-        <v>120.0378813039783</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H14" t="n">
         <v>33.94366860160834</v>
@@ -5278,25 +5278,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J14" t="n">
-        <v>259.9965322139538</v>
+        <v>34.84297538954127</v>
       </c>
       <c r="K14" t="n">
-        <v>680.049431158857</v>
+        <v>36.19080314341716</v>
       </c>
       <c r="L14" t="n">
-        <v>681.7215306706228</v>
+        <v>456.2437020883204</v>
       </c>
       <c r="M14" t="n">
-        <v>683.582063556546</v>
+        <v>684.2231105312579</v>
       </c>
       <c r="N14" t="n">
-        <v>685.4727018096908</v>
+        <v>686.1137487844027</v>
       </c>
       <c r="O14" t="n">
-        <v>687.2579778999465</v>
+        <v>1106.166647729306</v>
       </c>
       <c r="P14" t="n">
-        <v>1107.31087684485</v>
+        <v>1526.219546674209</v>
       </c>
       <c r="Q14" t="n">
         <v>1527.363775789753</v>
@@ -5308,22 +5308,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.1635279124</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.94209010588</v>
       </c>
       <c r="V14" t="n">
-        <v>1334.566480014244</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="W14" t="n">
-        <v>929.7110254252771</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="X14" t="n">
-        <v>929.7110254252771</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="Y14" t="n">
-        <v>521.4249017249305</v>
+        <v>891.1070171270717</v>
       </c>
     </row>
     <row r="15">
@@ -5363,16 +5363,16 @@
         <v>805.3493783418072</v>
       </c>
       <c r="L15" t="n">
-        <v>806.5803293526715</v>
+        <v>1154.070589890935</v>
       </c>
       <c r="M15" t="n">
-        <v>808.0167911221417</v>
+        <v>1155.507051660405</v>
       </c>
       <c r="N15" t="n">
-        <v>809.4912717603245</v>
+        <v>1156.981532298588</v>
       </c>
       <c r="O15" t="n">
-        <v>810.8401334810872</v>
+        <v>1158.330394019351</v>
       </c>
       <c r="P15" t="n">
         <v>1159.412974468012</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2216031011719</v>
+        <v>471.7265480191462</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6598915843969</v>
+        <v>299.1648365023711</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7818987859196</v>
+        <v>299.1648365023711</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0238950366569</v>
+        <v>299.1648365023711</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3168409984131</v>
+        <v>122.4577824641274</v>
       </c>
       <c r="G16" t="n">
-        <v>262.3168409984131</v>
+        <v>122.4577824641274</v>
       </c>
       <c r="H16" t="n">
         <v>122.4577824641274</v>
@@ -5442,13 +5442,13 @@
         <v>396.1700424958034</v>
       </c>
       <c r="L16" t="n">
-        <v>396.8766719371606</v>
+        <v>815.0865537051217</v>
       </c>
       <c r="M16" t="n">
-        <v>816.9295708820638</v>
+        <v>1179.111795377286</v>
       </c>
       <c r="N16" t="n">
-        <v>817.656897125574</v>
+        <v>1179.839121620797</v>
       </c>
       <c r="O16" t="n">
         <v>1180.510925127842</v>
@@ -5460,28 +5460,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R16" t="n">
-        <v>1675.98365645944</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S16" t="n">
-        <v>1516.826799967382</v>
+        <v>1695.338504633891</v>
       </c>
       <c r="T16" t="n">
-        <v>1516.826799967382</v>
+        <v>1695.338504633891</v>
       </c>
       <c r="U16" t="n">
-        <v>1516.826799967382</v>
+        <v>1695.338504633891</v>
       </c>
       <c r="V16" t="n">
-        <v>1516.826799967382</v>
+        <v>1408.382996504321</v>
       </c>
       <c r="W16" t="n">
-        <v>1516.826799967382</v>
+        <v>1136.356592090613</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.459892506051</v>
+        <v>890.9648374240251</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.040221820159</v>
+        <v>663.5451667381333</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>929.7110254252771</v>
+        <v>435.3306890225605</v>
       </c>
       <c r="C17" t="n">
-        <v>929.7110254252771</v>
+        <v>435.3306890225605</v>
       </c>
       <c r="D17" t="n">
-        <v>929.7110254252771</v>
+        <v>435.3306890225605</v>
       </c>
       <c r="E17" t="n">
-        <v>724.3501258784221</v>
+        <v>435.3306890225605</v>
       </c>
       <c r="F17" t="n">
-        <v>724.3501258784221</v>
+        <v>435.3306890225605</v>
       </c>
       <c r="G17" t="n">
-        <v>322.9631054574699</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H17" t="n">
         <v>33.94366860160834</v>
@@ -5515,22 +5515,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J17" t="n">
-        <v>453.9965675465116</v>
+        <v>34.84297538954127</v>
       </c>
       <c r="K17" t="n">
-        <v>680.3110154099016</v>
+        <v>36.19080314341716</v>
       </c>
       <c r="L17" t="n">
-        <v>681.9831149216674</v>
+        <v>37.86290265518287</v>
       </c>
       <c r="M17" t="n">
-        <v>683.8436478075906</v>
+        <v>39.72343554110611</v>
       </c>
       <c r="N17" t="n">
-        <v>685.7342860607354</v>
+        <v>267.2050789550432</v>
       </c>
       <c r="O17" t="n">
-        <v>1105.787185005639</v>
+        <v>687.2579778999465</v>
       </c>
       <c r="P17" t="n">
         <v>1107.31087684485</v>
@@ -5542,25 +5542,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S17" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.777910919181</v>
       </c>
       <c r="T17" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.758008751163</v>
       </c>
       <c r="U17" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.536570944643</v>
       </c>
       <c r="V17" t="n">
-        <v>1334.566480014244</v>
+        <v>771.9196208784692</v>
       </c>
       <c r="W17" t="n">
-        <v>929.7110254252771</v>
+        <v>771.9196208784692</v>
       </c>
       <c r="X17" t="n">
-        <v>929.7110254252771</v>
+        <v>771.9196208784692</v>
       </c>
       <c r="Y17" t="n">
-        <v>929.7110254252771</v>
+        <v>771.9196208784692</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>385.2964793969039</v>
       </c>
       <c r="K18" t="n">
-        <v>805.3493783418072</v>
+        <v>386.2119409334556</v>
       </c>
       <c r="L18" t="n">
-        <v>806.5803293526715</v>
+        <v>387.4428919443198</v>
       </c>
       <c r="M18" t="n">
-        <v>808.0167911221417</v>
+        <v>388.8793537137902</v>
       </c>
       <c r="N18" t="n">
-        <v>809.4912717603245</v>
+        <v>390.353834351973</v>
       </c>
       <c r="O18" t="n">
-        <v>810.8401334810872</v>
+        <v>739.3600755231091</v>
       </c>
       <c r="P18" t="n">
         <v>1159.412974468012</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2216031011719</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6598915843969</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D19" t="n">
-        <v>608.7818987859196</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E19" t="n">
-        <v>439.0238950366569</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F19" t="n">
-        <v>262.3168409984131</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G19" t="n">
-        <v>262.3168409984131</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H19" t="n">
-        <v>122.4577824641274</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I19" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>34.27969998019673</v>
+        <v>120.8593851448866</v>
       </c>
       <c r="K19" t="n">
-        <v>34.83190275997807</v>
+        <v>396.1700424958034</v>
       </c>
       <c r="L19" t="n">
-        <v>267.8591222634737</v>
+        <v>815.0865537051217</v>
       </c>
       <c r="M19" t="n">
-        <v>687.9120212083769</v>
+        <v>927.9234748037608</v>
       </c>
       <c r="N19" t="n">
-        <v>1107.96492015328</v>
+        <v>928.6508010472709</v>
       </c>
       <c r="O19" t="n">
-        <v>1528.017819098184</v>
+        <v>1348.703699992174</v>
       </c>
       <c r="P19" t="n">
-        <v>1528.592663056103</v>
+        <v>1696.785437920435</v>
       </c>
       <c r="Q19" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R19" t="n">
-        <v>1675.98365645944</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S19" t="n">
-        <v>1675.98365645944</v>
+        <v>1538.026573588359</v>
       </c>
       <c r="T19" t="n">
-        <v>1675.98365645944</v>
+        <v>1292.167847426947</v>
       </c>
       <c r="U19" t="n">
-        <v>1675.98365645944</v>
+        <v>1013.735111194012</v>
       </c>
       <c r="V19" t="n">
-        <v>1675.98365645944</v>
+        <v>726.779603064442</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.851647172638</v>
+        <v>454.7531986507335</v>
       </c>
       <c r="X19" t="n">
-        <v>1366.459892506051</v>
+        <v>209.361443984146</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.040221820159</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>724.3501258784221</v>
+        <v>1217.94209010588</v>
       </c>
       <c r="C20" t="n">
-        <v>724.3501258784221</v>
+        <v>1217.94209010588</v>
       </c>
       <c r="D20" t="n">
-        <v>724.3501258784221</v>
+        <v>1179.412209310994</v>
       </c>
       <c r="E20" t="n">
-        <v>724.3501258784221</v>
+        <v>750.8305350482622</v>
       </c>
       <c r="F20" t="n">
-        <v>724.3501258784221</v>
+        <v>322.9631054574699</v>
       </c>
       <c r="G20" t="n">
         <v>322.9631054574699</v>
@@ -5752,7 +5752,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>260.4339805503336</v>
+        <v>34.84297538954127</v>
       </c>
       <c r="K20" t="n">
         <v>261.7818083042095</v>
@@ -5779,25 +5779,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>1613.777910919181</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>1393.758008751163</v>
+        <v>1477.1635279124</v>
       </c>
       <c r="U20" t="n">
-        <v>1134.536570944643</v>
+        <v>1217.94209010588</v>
       </c>
       <c r="V20" t="n">
-        <v>1134.536570944643</v>
+        <v>1217.94209010588</v>
       </c>
       <c r="W20" t="n">
-        <v>729.6811163556761</v>
+        <v>1217.94209010588</v>
       </c>
       <c r="X20" t="n">
-        <v>724.3501258784221</v>
+        <v>1217.94209010588</v>
       </c>
       <c r="Y20" t="n">
-        <v>724.3501258784221</v>
+        <v>1217.94209010588</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>385.2964793969039</v>
       </c>
       <c r="K21" t="n">
-        <v>805.3493783418072</v>
+        <v>386.2119409334556</v>
       </c>
       <c r="L21" t="n">
-        <v>806.5803293526715</v>
+        <v>387.4428919443198</v>
       </c>
       <c r="M21" t="n">
-        <v>808.0167911221417</v>
+        <v>388.8793537137902</v>
       </c>
       <c r="N21" t="n">
-        <v>809.4912717603245</v>
+        <v>390.353834351973</v>
       </c>
       <c r="O21" t="n">
-        <v>810.8401334810872</v>
+        <v>739.3600755231091</v>
       </c>
       <c r="P21" t="n">
         <v>1159.412974468012</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>972.9489701184743</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C22" t="n">
-        <v>800.3872586016993</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D22" t="n">
-        <v>634.509265803222</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E22" t="n">
-        <v>464.7512620539593</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F22" t="n">
-        <v>288.0442080157155</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G22" t="n">
-        <v>122.4577824641274</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H22" t="n">
-        <v>122.4577824641274</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I22" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>34.27969998019673</v>
+        <v>120.8593851448866</v>
       </c>
       <c r="K22" t="n">
-        <v>34.83190275997807</v>
+        <v>396.1700424958034</v>
       </c>
       <c r="L22" t="n">
-        <v>453.7484139692963</v>
+        <v>815.0865537051217</v>
       </c>
       <c r="M22" t="n">
-        <v>873.8013129141996</v>
+        <v>1179.111795377286</v>
       </c>
       <c r="N22" t="n">
-        <v>1107.96492015328</v>
+        <v>1179.839121620797</v>
       </c>
       <c r="O22" t="n">
-        <v>1528.017819098184</v>
+        <v>1180.510925127842</v>
       </c>
       <c r="P22" t="n">
         <v>1528.592663056103</v>
@@ -5934,28 +5934,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>1675.98365645944</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>1675.98365645944</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T22" t="n">
-        <v>1675.98365645944</v>
+        <v>1535.988361449288</v>
       </c>
       <c r="U22" t="n">
-        <v>1675.98365645944</v>
+        <v>1257.555625216353</v>
       </c>
       <c r="V22" t="n">
-        <v>1675.98365645944</v>
+        <v>970.6001170867833</v>
       </c>
       <c r="W22" t="n">
-        <v>1637.579014189941</v>
+        <v>698.5737126730747</v>
       </c>
       <c r="X22" t="n">
-        <v>1392.187259523353</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="Y22" t="n">
-        <v>1164.767588837462</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
     <row r="23">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1517.931979502777</v>
+        <v>559.6074729349947</v>
       </c>
       <c r="C24" t="n">
-        <v>1411.475518339419</v>
+        <v>453.1510117716369</v>
       </c>
       <c r="D24" t="n">
-        <v>1316.385229485972</v>
+        <v>358.0607229181902</v>
       </c>
       <c r="E24" t="n">
-        <v>1222.264814812926</v>
+        <v>263.9403082451439</v>
       </c>
       <c r="F24" t="n">
-        <v>1138.880976429087</v>
+        <v>180.5564698613055</v>
       </c>
       <c r="G24" t="n">
-        <v>1053.501671066567</v>
+        <v>95.17716449878458</v>
       </c>
       <c r="H24" t="n">
-        <v>1011.821883731866</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="I24" t="n">
-        <v>1038.080748598925</v>
+        <v>79.75624203114305</v>
       </c>
       <c r="J24" t="n">
-        <v>1363.174694527162</v>
+        <v>404.85018795938</v>
       </c>
       <c r="K24" t="n">
-        <v>1364.090156063713</v>
+        <v>1050.983631395003</v>
       </c>
       <c r="L24" t="n">
-        <v>1365.321107074578</v>
+        <v>1052.214582405867</v>
       </c>
       <c r="M24" t="n">
-        <v>1366.757568844048</v>
+        <v>1053.651044175338</v>
       </c>
       <c r="N24" t="n">
-        <v>1368.232049482231</v>
+        <v>1055.12552481352</v>
       </c>
       <c r="O24" t="n">
-        <v>1369.580911202994</v>
+        <v>1056.474386534283</v>
       </c>
       <c r="P24" t="n">
-        <v>2015.881473550727</v>
+        <v>1057.556966982945</v>
       </c>
       <c r="Q24" t="n">
-        <v>2557.344088543174</v>
+        <v>1599.019581975392</v>
       </c>
       <c r="R24" t="n">
-        <v>2674.86885820422</v>
+        <v>1716.544351636438</v>
       </c>
       <c r="S24" t="n">
-        <v>2611.520862812406</v>
+        <v>1653.196356244623</v>
       </c>
       <c r="T24" t="n">
-        <v>2481.365534218534</v>
+        <v>1523.041027650752</v>
       </c>
       <c r="U24" t="n">
-        <v>2305.029367769246</v>
+        <v>1346.704861201464</v>
       </c>
       <c r="V24" t="n">
-        <v>2105.911849831245</v>
+        <v>1147.587343263463</v>
       </c>
       <c r="W24" t="n">
-        <v>1920.589095564439</v>
+        <v>962.264588996657</v>
       </c>
       <c r="X24" t="n">
-        <v>1765.721659803319</v>
+        <v>807.3971532355371</v>
       </c>
       <c r="Y24" t="n">
-        <v>1639.23588058254</v>
+        <v>680.9113740147578</v>
       </c>
     </row>
     <row r="25">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1564.769496581322</v>
+        <v>743.9038344408982</v>
       </c>
       <c r="C26" t="n">
-        <v>1564.769496581322</v>
+        <v>743.9038344408982</v>
       </c>
       <c r="D26" t="n">
-        <v>1564.769496581322</v>
+        <v>743.9038344408982</v>
       </c>
       <c r="E26" t="n">
-        <v>1171.77126403169</v>
+        <v>743.9038344408982</v>
       </c>
       <c r="F26" t="n">
         <v>743.9038344408982</v>
@@ -6220,10 +6220,10 @@
         <v>342.516814019946</v>
       </c>
       <c r="H26" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="I26" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="J26" t="n">
         <v>489.6513714049352</v>
@@ -6238,13 +6238,13 @@
         <v>494.5318315565</v>
       </c>
       <c r="N26" t="n">
-        <v>633.3461040283285</v>
+        <v>633.3461040283288</v>
       </c>
       <c r="O26" t="n">
         <v>1295.376146433873</v>
       </c>
       <c r="P26" t="n">
-        <v>1957.406188839417</v>
+        <v>1957.406188839418</v>
       </c>
       <c r="Q26" t="n">
         <v>2505.049203913556</v>
@@ -6253,25 +6253,25 @@
         <v>2674.86885820422</v>
       </c>
       <c r="S26" t="n">
-        <v>2591.463339042983</v>
+        <v>2591.463339042984</v>
       </c>
       <c r="T26" t="n">
-        <v>2591.463339042983</v>
+        <v>2371.443436874966</v>
       </c>
       <c r="U26" t="n">
-        <v>2332.241901236463</v>
+        <v>2371.443436874966</v>
       </c>
       <c r="V26" t="n">
-        <v>1969.624951170289</v>
+        <v>2008.826486808793</v>
       </c>
       <c r="W26" t="n">
-        <v>1564.769496581322</v>
+        <v>1603.971032219826</v>
       </c>
       <c r="X26" t="n">
-        <v>1564.769496581322</v>
+        <v>1184.828568799137</v>
       </c>
       <c r="Y26" t="n">
-        <v>1564.769496581322</v>
+        <v>776.5424450987899</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>95.17716449878458</v>
       </c>
       <c r="H27" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="I27" t="n">
-        <v>79.75624203114302</v>
+        <v>79.75624203114305</v>
       </c>
       <c r="J27" t="n">
         <v>404.85018795938</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1043.847623352717</v>
+        <v>903.9885648184314</v>
       </c>
       <c r="C28" t="n">
-        <v>871.2859118359421</v>
+        <v>731.4268533016564</v>
       </c>
       <c r="D28" t="n">
-        <v>705.4079190374648</v>
+        <v>565.5488605031791</v>
       </c>
       <c r="E28" t="n">
-        <v>535.649915288202</v>
+        <v>395.7908567539163</v>
       </c>
       <c r="F28" t="n">
-        <v>358.9428612499582</v>
+        <v>219.0838027156725</v>
       </c>
       <c r="G28" t="n">
-        <v>193.3564356983701</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="H28" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="I28" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="J28" t="n">
         <v>140.4130937073626</v>
@@ -6399,10 +6399,10 @@
         <v>1737.855300518818</v>
       </c>
       <c r="O28" t="n">
-        <v>2158.196353251644</v>
+        <v>2158.196353251645</v>
       </c>
       <c r="P28" t="n">
-        <v>2506.278091179905</v>
+        <v>2506.278091179906</v>
       </c>
       <c r="Q28" t="n">
         <v>2674.86885820422</v>
@@ -6411,25 +6411,25 @@
         <v>2674.86885820422</v>
       </c>
       <c r="S28" t="n">
-        <v>2674.86885820422</v>
+        <v>2651.891983827523</v>
       </c>
       <c r="T28" t="n">
-        <v>2545.892316200397</v>
+        <v>2406.033257666111</v>
       </c>
       <c r="U28" t="n">
-        <v>2267.459579967462</v>
+        <v>2127.600521433176</v>
       </c>
       <c r="V28" t="n">
-        <v>1980.504071837892</v>
+        <v>1840.645013303606</v>
       </c>
       <c r="W28" t="n">
-        <v>1708.477667424184</v>
+        <v>1568.618608889898</v>
       </c>
       <c r="X28" t="n">
-        <v>1463.085912757596</v>
+        <v>1323.22685422331</v>
       </c>
       <c r="Y28" t="n">
-        <v>1235.666242071704</v>
+        <v>1095.807183537418</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>802.7329818369616</v>
+        <v>593.5694193892875</v>
       </c>
       <c r="C29" t="n">
-        <v>481.3648067548767</v>
+        <v>593.5694193892875</v>
       </c>
       <c r="D29" t="n">
-        <v>481.3648067548767</v>
+        <v>593.5694193892875</v>
       </c>
       <c r="E29" t="n">
-        <v>481.3648067548767</v>
+        <v>593.5694193892875</v>
       </c>
       <c r="F29" t="n">
-        <v>53.49737716408439</v>
+        <v>593.5694193892875</v>
       </c>
       <c r="G29" t="n">
-        <v>53.49737716408439</v>
+        <v>192.1823989683353</v>
       </c>
       <c r="H29" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="I29" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="J29" t="n">
-        <v>489.6513714049352</v>
+        <v>54.39668395201733</v>
       </c>
       <c r="K29" t="n">
-        <v>1151.68141381048</v>
+        <v>55.74451170589322</v>
       </c>
       <c r="L29" t="n">
-        <v>1813.711456216024</v>
+        <v>629.5949328892607</v>
       </c>
       <c r="M29" t="n">
-        <v>2475.741498621568</v>
+        <v>631.4554657751841</v>
       </c>
       <c r="N29" t="n">
-        <v>2500.596006868545</v>
+        <v>633.3461040283288</v>
       </c>
       <c r="O29" t="n">
-        <v>2502.381282958801</v>
+        <v>1295.376146433873</v>
       </c>
       <c r="P29" t="n">
-        <v>2503.904974798012</v>
+        <v>1957.406188839418</v>
       </c>
       <c r="Q29" t="n">
         <v>2505.049203913556</v>
@@ -6493,22 +6493,22 @@
         <v>2674.86885820422</v>
       </c>
       <c r="T29" t="n">
-        <v>2674.86885820422</v>
+        <v>2454.848956036203</v>
       </c>
       <c r="U29" t="n">
-        <v>2415.647420397699</v>
+        <v>2195.627518229682</v>
       </c>
       <c r="V29" t="n">
-        <v>2053.030470331526</v>
+        <v>1833.010568163509</v>
       </c>
       <c r="W29" t="n">
-        <v>1648.175015742559</v>
+        <v>1428.155113574542</v>
       </c>
       <c r="X29" t="n">
-        <v>1229.032552321869</v>
+        <v>1428.155113574542</v>
       </c>
       <c r="Y29" t="n">
-        <v>1229.032552321869</v>
+        <v>1019.868989874195</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>95.17716449878458</v>
       </c>
       <c r="H30" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="I30" t="n">
-        <v>79.75624203114302</v>
+        <v>79.75624203114305</v>
       </c>
       <c r="J30" t="n">
         <v>404.85018795938</v>
       </c>
       <c r="K30" t="n">
-        <v>1050.983631395003</v>
+        <v>405.7656494959317</v>
       </c>
       <c r="L30" t="n">
-        <v>1052.214582405867</v>
+        <v>406.9966005067959</v>
       </c>
       <c r="M30" t="n">
-        <v>1053.651044175338</v>
+        <v>408.4330622762662</v>
       </c>
       <c r="N30" t="n">
-        <v>1055.12552481352</v>
+        <v>409.907542914449</v>
       </c>
       <c r="O30" t="n">
-        <v>1056.474386534283</v>
+        <v>411.2564046352117</v>
       </c>
       <c r="P30" t="n">
         <v>1057.556966982945</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1132.361737215236</v>
+        <v>1013.667308864482</v>
       </c>
       <c r="C31" t="n">
-        <v>959.8000256984611</v>
+        <v>841.105597347707</v>
       </c>
       <c r="D31" t="n">
-        <v>793.9220328999838</v>
+        <v>675.2276045492297</v>
       </c>
       <c r="E31" t="n">
-        <v>624.164029150721</v>
+        <v>505.4696007999669</v>
       </c>
       <c r="F31" t="n">
-        <v>447.4569751124773</v>
+        <v>328.7625467617231</v>
       </c>
       <c r="G31" t="n">
-        <v>281.8705495608891</v>
+        <v>281.8705495608892</v>
       </c>
       <c r="H31" t="n">
         <v>142.0114910266034</v>
       </c>
       <c r="I31" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="J31" t="n">
         <v>140.4130937073626</v>
@@ -6636,37 +6636,37 @@
         <v>1737.855300518818</v>
       </c>
       <c r="O31" t="n">
-        <v>2158.196353251644</v>
+        <v>2158.196353251645</v>
       </c>
       <c r="P31" t="n">
-        <v>2506.278091179905</v>
+        <v>2506.278091179906</v>
       </c>
       <c r="Q31" t="n">
         <v>2674.86885820422</v>
       </c>
       <c r="R31" t="n">
-        <v>2653.669084583242</v>
+        <v>2674.86885820422</v>
       </c>
       <c r="S31" t="n">
-        <v>2653.669084583242</v>
+        <v>2515.712001712162</v>
       </c>
       <c r="T31" t="n">
-        <v>2407.81035842183</v>
+        <v>2515.712001712162</v>
       </c>
       <c r="U31" t="n">
-        <v>2355.973693829981</v>
+        <v>2237.279265479227</v>
       </c>
       <c r="V31" t="n">
-        <v>2069.018185700411</v>
+        <v>1950.323757349657</v>
       </c>
       <c r="W31" t="n">
-        <v>1796.991781286703</v>
+        <v>1678.297352935949</v>
       </c>
       <c r="X31" t="n">
-        <v>1551.600026620115</v>
+        <v>1432.905598269361</v>
       </c>
       <c r="Y31" t="n">
-        <v>1324.180355934223</v>
+        <v>1205.485927583469</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1344.749594413305</v>
+        <v>743.9038344408982</v>
       </c>
       <c r="C32" t="n">
-        <v>1344.749594413305</v>
+        <v>743.9038344408982</v>
       </c>
       <c r="D32" t="n">
-        <v>1344.749594413305</v>
+        <v>743.9038344408982</v>
       </c>
       <c r="E32" t="n">
-        <v>1171.77126403169</v>
+        <v>743.9038344408982</v>
       </c>
       <c r="F32" t="n">
         <v>743.9038344408982</v>
@@ -6694,10 +6694,10 @@
         <v>342.516814019946</v>
       </c>
       <c r="H32" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="I32" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="J32" t="n">
         <v>489.6513714049352</v>
@@ -6706,19 +6706,19 @@
         <v>1151.68141381048</v>
       </c>
       <c r="L32" t="n">
-        <v>1153.353513322245</v>
+        <v>1289.83969920455</v>
       </c>
       <c r="M32" t="n">
-        <v>1155.214046208169</v>
+        <v>1291.700232090473</v>
       </c>
       <c r="N32" t="n">
-        <v>1157.104684461313</v>
+        <v>1293.590870343618</v>
       </c>
       <c r="O32" t="n">
         <v>1295.376146433873</v>
       </c>
       <c r="P32" t="n">
-        <v>1957.406188839417</v>
+        <v>1957.406188839418</v>
       </c>
       <c r="Q32" t="n">
         <v>2505.049203913556</v>
@@ -6727,25 +6727,25 @@
         <v>2674.86885820422</v>
       </c>
       <c r="S32" t="n">
-        <v>2591.463339042983</v>
+        <v>2674.86885820422</v>
       </c>
       <c r="T32" t="n">
-        <v>2371.443436874966</v>
+        <v>2454.848956036203</v>
       </c>
       <c r="U32" t="n">
-        <v>2112.221999068445</v>
+        <v>2338.804826217074</v>
       </c>
       <c r="V32" t="n">
-        <v>1749.605049002272</v>
+        <v>1976.187876150901</v>
       </c>
       <c r="W32" t="n">
-        <v>1344.749594413305</v>
+        <v>1571.332421561934</v>
       </c>
       <c r="X32" t="n">
-        <v>1344.749594413305</v>
+        <v>1152.189958141245</v>
       </c>
       <c r="Y32" t="n">
-        <v>1344.749594413305</v>
+        <v>743.9038344408982</v>
       </c>
     </row>
     <row r="33">
@@ -6773,28 +6773,28 @@
         <v>95.17716449878458</v>
       </c>
       <c r="H33" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="I33" t="n">
-        <v>79.75624203114302</v>
+        <v>79.75624203114305</v>
       </c>
       <c r="J33" t="n">
         <v>404.85018795938</v>
       </c>
       <c r="K33" t="n">
-        <v>405.7656494959317</v>
+        <v>1050.983631395003</v>
       </c>
       <c r="L33" t="n">
-        <v>406.9966005067959</v>
+        <v>1052.214582405867</v>
       </c>
       <c r="M33" t="n">
-        <v>408.4330622762662</v>
+        <v>1053.651044175338</v>
       </c>
       <c r="N33" t="n">
-        <v>409.907542914449</v>
+        <v>1055.12552481352</v>
       </c>
       <c r="O33" t="n">
-        <v>411.2564046352117</v>
+        <v>1056.474386534283</v>
       </c>
       <c r="P33" t="n">
         <v>1057.556966982945</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>767.8085827030695</v>
+        <v>903.9885648184314</v>
       </c>
       <c r="C34" t="n">
-        <v>595.2468711862945</v>
+        <v>731.4268533016564</v>
       </c>
       <c r="D34" t="n">
-        <v>595.2468711862945</v>
+        <v>565.5488605031791</v>
       </c>
       <c r="E34" t="n">
-        <v>425.4888674370317</v>
+        <v>395.7908567539163</v>
       </c>
       <c r="F34" t="n">
-        <v>248.7818133987879</v>
+        <v>219.0838027156725</v>
       </c>
       <c r="G34" t="n">
-        <v>83.19538784719981</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="H34" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="I34" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="J34" t="n">
         <v>140.4130937073626</v>
       </c>
       <c r="K34" t="n">
-        <v>415.723751058279</v>
+        <v>415.7237510582795</v>
       </c>
       <c r="L34" t="n">
-        <v>834.6402622675971</v>
+        <v>834.6402622675977</v>
       </c>
       <c r="M34" t="n">
         <v>1294.869171117663</v>
@@ -6873,10 +6873,10 @@
         <v>1737.855300518818</v>
       </c>
       <c r="O34" t="n">
-        <v>2158.196353251644</v>
+        <v>2158.196353251645</v>
       </c>
       <c r="P34" t="n">
-        <v>2506.278091179905</v>
+        <v>2506.278091179906</v>
       </c>
       <c r="Q34" t="n">
         <v>2674.86885820422</v>
@@ -6885,25 +6885,25 @@
         <v>2674.86885820422</v>
       </c>
       <c r="S34" t="n">
-        <v>2515.712001712162</v>
+        <v>2651.891983827523</v>
       </c>
       <c r="T34" t="n">
-        <v>2269.853275550749</v>
+        <v>2406.033257666111</v>
       </c>
       <c r="U34" t="n">
-        <v>1991.420539317814</v>
+        <v>2127.600521433176</v>
       </c>
       <c r="V34" t="n">
-        <v>1704.465031188244</v>
+        <v>1840.645013303606</v>
       </c>
       <c r="W34" t="n">
-        <v>1432.438626774536</v>
+        <v>1568.618608889898</v>
       </c>
       <c r="X34" t="n">
-        <v>1187.046872107949</v>
+        <v>1323.22685422331</v>
       </c>
       <c r="Y34" t="n">
-        <v>959.6272014220567</v>
+        <v>1095.807183537418</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2190.578829659666</v>
+        <v>743.9038344408982</v>
       </c>
       <c r="C35" t="n">
-        <v>1752.436356843089</v>
+        <v>743.9038344408982</v>
       </c>
       <c r="D35" t="n">
-        <v>1316.526572017534</v>
+        <v>743.9038344408982</v>
       </c>
       <c r="E35" t="n">
-        <v>882.7518271758288</v>
+        <v>743.9038344408982</v>
       </c>
       <c r="F35" t="n">
-        <v>454.8843975850366</v>
+        <v>743.9038344408982</v>
       </c>
       <c r="G35" t="n">
-        <v>53.49737716408439</v>
+        <v>342.516814019946</v>
       </c>
       <c r="H35" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="I35" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="J35" t="n">
         <v>489.6513714049352</v>
       </c>
       <c r="K35" t="n">
-        <v>490.9991991588111</v>
+        <v>1151.68141381048</v>
       </c>
       <c r="L35" t="n">
-        <v>492.6712986705768</v>
+        <v>1289.83969920455</v>
       </c>
       <c r="M35" t="n">
-        <v>494.5318315565</v>
+        <v>1291.700232090473</v>
       </c>
       <c r="N35" t="n">
-        <v>633.3461040283285</v>
+        <v>1293.590870343618</v>
       </c>
       <c r="O35" t="n">
         <v>1295.376146433873</v>
       </c>
       <c r="P35" t="n">
-        <v>1957.406188839417</v>
+        <v>1957.406188839418</v>
       </c>
       <c r="Q35" t="n">
         <v>2505.049203913556</v>
@@ -6964,25 +6964,25 @@
         <v>2674.86885820422</v>
       </c>
       <c r="S35" t="n">
-        <v>2674.86885820422</v>
+        <v>2591.463339042984</v>
       </c>
       <c r="T35" t="n">
-        <v>2674.86885820422</v>
+        <v>2371.443436874966</v>
       </c>
       <c r="U35" t="n">
-        <v>2674.86885820422</v>
+        <v>2112.221999068446</v>
       </c>
       <c r="V35" t="n">
-        <v>2674.86885820422</v>
+        <v>1749.605049002272</v>
       </c>
       <c r="W35" t="n">
-        <v>2609.721293080355</v>
+        <v>1344.749594413305</v>
       </c>
       <c r="X35" t="n">
-        <v>2190.578829659666</v>
+        <v>1344.749594413305</v>
       </c>
       <c r="Y35" t="n">
-        <v>2190.578829659666</v>
+        <v>936.4634707129588</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>95.17716449878458</v>
       </c>
       <c r="H36" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="I36" t="n">
-        <v>79.75624203114302</v>
+        <v>79.75624203114305</v>
       </c>
       <c r="J36" t="n">
         <v>404.85018795938</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>905.7656655741503</v>
+        <v>746.6088090820926</v>
       </c>
       <c r="C37" t="n">
-        <v>733.2039540573752</v>
+        <v>746.6088090820926</v>
       </c>
       <c r="D37" t="n">
-        <v>567.3259612588979</v>
+        <v>580.7308162836154</v>
       </c>
       <c r="E37" t="n">
-        <v>397.5679575096352</v>
+        <v>410.9728125343526</v>
       </c>
       <c r="F37" t="n">
-        <v>220.8609034713914</v>
+        <v>234.2657584961088</v>
       </c>
       <c r="G37" t="n">
-        <v>55.27447791980325</v>
+        <v>234.2657584961088</v>
       </c>
       <c r="H37" t="n">
-        <v>55.27447791980325</v>
+        <v>94.40669996182308</v>
       </c>
       <c r="I37" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="J37" t="n">
-        <v>140.4130937073626</v>
+        <v>140.4130937073625</v>
       </c>
       <c r="K37" t="n">
-        <v>415.7237510582793</v>
+        <v>415.7237510582794</v>
       </c>
       <c r="L37" t="n">
-        <v>834.6402622675973</v>
+        <v>834.6402622675976</v>
       </c>
       <c r="M37" t="n">
         <v>1294.869171117663</v>
@@ -7110,37 +7110,37 @@
         <v>1737.855300518818</v>
       </c>
       <c r="O37" t="n">
-        <v>2158.196353251644</v>
+        <v>2158.196353251645</v>
       </c>
       <c r="P37" t="n">
-        <v>2506.278091179905</v>
+        <v>2506.278091179906</v>
       </c>
       <c r="Q37" t="n">
         <v>2674.86885820422</v>
       </c>
       <c r="R37" t="n">
-        <v>2653.669084583242</v>
+        <v>2653.669084583243</v>
       </c>
       <c r="S37" t="n">
-        <v>2653.669084583242</v>
+        <v>2494.512228091185</v>
       </c>
       <c r="T37" t="n">
-        <v>2407.81035842183</v>
+        <v>2248.653501929773</v>
       </c>
       <c r="U37" t="n">
-        <v>2129.377622188895</v>
+        <v>1970.220765696837</v>
       </c>
       <c r="V37" t="n">
-        <v>1842.422114059325</v>
+        <v>1683.265257567268</v>
       </c>
       <c r="W37" t="n">
-        <v>1570.395709645617</v>
+        <v>1411.238853153559</v>
       </c>
       <c r="X37" t="n">
-        <v>1325.003954979029</v>
+        <v>1165.847098486972</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.584284293137</v>
+        <v>938.4274278010798</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1789.191809238714</v>
+        <v>1019.868989874195</v>
       </c>
       <c r="C38" t="n">
-        <v>1351.049336422137</v>
+        <v>1019.868989874195</v>
       </c>
       <c r="D38" t="n">
-        <v>915.1395515965814</v>
+        <v>1019.868989874195</v>
       </c>
       <c r="E38" t="n">
-        <v>481.3648067548767</v>
+        <v>1019.868989874195</v>
       </c>
       <c r="F38" t="n">
-        <v>53.49737716408439</v>
+        <v>743.9038344408982</v>
       </c>
       <c r="G38" t="n">
-        <v>53.49737716408439</v>
+        <v>342.516814019946</v>
       </c>
       <c r="H38" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="I38" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="J38" t="n">
-        <v>54.39668395201732</v>
+        <v>489.6513714049352</v>
       </c>
       <c r="K38" t="n">
-        <v>716.4267263575616</v>
+        <v>490.9991991588111</v>
       </c>
       <c r="L38" t="n">
-        <v>1378.456768763106</v>
+        <v>492.6712986705768</v>
       </c>
       <c r="M38" t="n">
-        <v>1380.317301649029</v>
+        <v>494.5318315565</v>
       </c>
       <c r="N38" t="n">
-        <v>1382.207939902174</v>
+        <v>633.3461040283288</v>
       </c>
       <c r="O38" t="n">
-        <v>1464.53021118693</v>
+        <v>1295.376146433873</v>
       </c>
       <c r="P38" t="n">
-        <v>2126.560253592474</v>
+        <v>1957.406188839418</v>
       </c>
       <c r="Q38" t="n">
-        <v>2674.203268666613</v>
+        <v>2505.049203913556</v>
       </c>
       <c r="R38" t="n">
         <v>2674.86885820422</v>
@@ -7204,22 +7204,22 @@
         <v>2674.86885820422</v>
       </c>
       <c r="T38" t="n">
-        <v>2454.848956036202</v>
+        <v>2454.848956036203</v>
       </c>
       <c r="U38" t="n">
         <v>2195.627518229682</v>
       </c>
       <c r="V38" t="n">
-        <v>1833.010568163508</v>
+        <v>1833.010568163509</v>
       </c>
       <c r="W38" t="n">
-        <v>1789.191809238714</v>
+        <v>1428.155113574542</v>
       </c>
       <c r="X38" t="n">
-        <v>1789.191809238714</v>
+        <v>1428.155113574542</v>
       </c>
       <c r="Y38" t="n">
-        <v>1789.191809238714</v>
+        <v>1019.868989874195</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>95.17716449878458</v>
       </c>
       <c r="H39" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="I39" t="n">
-        <v>79.75624203114302</v>
+        <v>79.75624203114305</v>
       </c>
       <c r="J39" t="n">
         <v>404.85018795938</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9654391951276</v>
+        <v>767.80858270307</v>
       </c>
       <c r="C40" t="n">
-        <v>926.9654391951276</v>
+        <v>595.2468711862949</v>
       </c>
       <c r="D40" t="n">
-        <v>793.9220328999838</v>
+        <v>429.3688783878176</v>
       </c>
       <c r="E40" t="n">
-        <v>624.164029150721</v>
+        <v>259.6108746385549</v>
       </c>
       <c r="F40" t="n">
-        <v>447.4569751124773</v>
+        <v>82.90382060031109</v>
       </c>
       <c r="G40" t="n">
-        <v>281.8705495608891</v>
+        <v>82.90382060031109</v>
       </c>
       <c r="H40" t="n">
-        <v>142.0114910266034</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="I40" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="J40" t="n">
-        <v>140.4130937073626</v>
+        <v>140.4130937073625</v>
       </c>
       <c r="K40" t="n">
-        <v>415.7237510582795</v>
+        <v>415.7237510582794</v>
       </c>
       <c r="L40" t="n">
-        <v>834.6402622675977</v>
+        <v>834.6402622675976</v>
       </c>
       <c r="M40" t="n">
         <v>1294.869171117663</v>
@@ -7347,10 +7347,10 @@
         <v>1737.855300518818</v>
       </c>
       <c r="O40" t="n">
-        <v>2158.196353251644</v>
+        <v>2158.196353251645</v>
       </c>
       <c r="P40" t="n">
-        <v>2506.278091179905</v>
+        <v>2506.278091179906</v>
       </c>
       <c r="Q40" t="n">
         <v>2674.86885820422</v>
@@ -7359,25 +7359,25 @@
         <v>2674.86885820422</v>
       </c>
       <c r="S40" t="n">
-        <v>2674.86885820422</v>
+        <v>2515.712001712162</v>
       </c>
       <c r="T40" t="n">
-        <v>2429.010132042808</v>
+        <v>2269.85327555075</v>
       </c>
       <c r="U40" t="n">
-        <v>2150.577395809872</v>
+        <v>1991.420539317814</v>
       </c>
       <c r="V40" t="n">
-        <v>1863.621887680303</v>
+        <v>1704.465031188245</v>
       </c>
       <c r="W40" t="n">
-        <v>1591.595483266594</v>
+        <v>1432.438626774536</v>
       </c>
       <c r="X40" t="n">
-        <v>1346.203728600007</v>
+        <v>1187.046872107949</v>
       </c>
       <c r="Y40" t="n">
-        <v>1118.784057914115</v>
+        <v>959.6272014220572</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>743.9038344408982</v>
+        <v>1328.936655227169</v>
       </c>
       <c r="C41" t="n">
-        <v>743.9038344408982</v>
+        <v>890.7941824105922</v>
       </c>
       <c r="D41" t="n">
-        <v>743.9038344408982</v>
+        <v>454.8843975850366</v>
       </c>
       <c r="E41" t="n">
-        <v>743.9038344408982</v>
+        <v>454.8843975850366</v>
       </c>
       <c r="F41" t="n">
-        <v>743.9038344408982</v>
+        <v>454.8843975850366</v>
       </c>
       <c r="G41" t="n">
-        <v>342.516814019946</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="H41" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="I41" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="J41" t="n">
-        <v>489.6513714049351</v>
+        <v>489.6513714049352</v>
       </c>
       <c r="K41" t="n">
-        <v>1151.681413810479</v>
+        <v>490.9991991588111</v>
       </c>
       <c r="L41" t="n">
-        <v>1153.353513322245</v>
+        <v>492.6712986705768</v>
       </c>
       <c r="M41" t="n">
-        <v>1155.214046208168</v>
+        <v>494.5318315565</v>
       </c>
       <c r="N41" t="n">
-        <v>1157.104684461312</v>
+        <v>633.3461040283288</v>
       </c>
       <c r="O41" t="n">
         <v>1295.376146433873</v>
       </c>
       <c r="P41" t="n">
-        <v>1957.406188839417</v>
+        <v>1957.406188839418</v>
       </c>
       <c r="Q41" t="n">
         <v>2505.049203913556</v>
@@ -7438,25 +7438,25 @@
         <v>2674.86885820422</v>
       </c>
       <c r="S41" t="n">
-        <v>2591.463339042983</v>
+        <v>2674.86885820422</v>
       </c>
       <c r="T41" t="n">
-        <v>2371.443436874966</v>
+        <v>2454.848956036203</v>
       </c>
       <c r="U41" t="n">
-        <v>2112.221999068445</v>
+        <v>2195.627518229682</v>
       </c>
       <c r="V41" t="n">
-        <v>1749.605049002272</v>
+        <v>2195.627518229682</v>
       </c>
       <c r="W41" t="n">
-        <v>1344.749594413305</v>
+        <v>1790.772063640715</v>
       </c>
       <c r="X41" t="n">
-        <v>1152.189958141245</v>
+        <v>1790.772063640715</v>
       </c>
       <c r="Y41" t="n">
-        <v>743.9038344408982</v>
+        <v>1382.485939940369</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>95.17716449878458</v>
       </c>
       <c r="H42" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="I42" t="n">
-        <v>53.69256887068541</v>
+        <v>79.75624203114305</v>
       </c>
       <c r="J42" t="n">
-        <v>54.22818983270994</v>
+        <v>404.85018795938</v>
       </c>
       <c r="K42" t="n">
-        <v>55.14365136926149</v>
+        <v>1050.983631395003</v>
       </c>
       <c r="L42" t="n">
-        <v>388.4976564906185</v>
+        <v>1052.214582405867</v>
       </c>
       <c r="M42" t="n">
-        <v>389.9341182600887</v>
+        <v>1053.651044175338</v>
       </c>
       <c r="N42" t="n">
-        <v>391.4085988982714</v>
+        <v>1055.12552481352</v>
       </c>
       <c r="O42" t="n">
-        <v>1053.438641303816</v>
+        <v>1056.474386534283</v>
       </c>
       <c r="P42" t="n">
-        <v>1715.46868370936</v>
+        <v>1057.556966982945</v>
       </c>
       <c r="Q42" t="n">
-        <v>1716.192360069731</v>
+        <v>1599.019581975392</v>
       </c>
       <c r="R42" t="n">
         <v>1716.544351636438</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>767.8085827030695</v>
+        <v>767.80858270307</v>
       </c>
       <c r="C43" t="n">
-        <v>595.2468711862945</v>
+        <v>595.2468711862949</v>
       </c>
       <c r="D43" t="n">
-        <v>429.3688783878172</v>
+        <v>429.3688783878176</v>
       </c>
       <c r="E43" t="n">
-        <v>429.3688783878172</v>
+        <v>259.6108746385549</v>
       </c>
       <c r="F43" t="n">
-        <v>252.6618243495734</v>
+        <v>82.90382060031109</v>
       </c>
       <c r="G43" t="n">
-        <v>87.07539879798526</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="H43" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="I43" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="J43" t="n">
         <v>140.4130937073626</v>
       </c>
       <c r="K43" t="n">
-        <v>415.7237510582794</v>
+        <v>415.7237510582795</v>
       </c>
       <c r="L43" t="n">
-        <v>834.6402622675974</v>
+        <v>834.6402622675977</v>
       </c>
       <c r="M43" t="n">
         <v>1294.869171117663</v>
@@ -7584,10 +7584,10 @@
         <v>1737.855300518818</v>
       </c>
       <c r="O43" t="n">
-        <v>2158.196353251644</v>
+        <v>2158.196353251645</v>
       </c>
       <c r="P43" t="n">
-        <v>2506.278091179905</v>
+        <v>2506.278091179906</v>
       </c>
       <c r="Q43" t="n">
         <v>2674.86885820422</v>
@@ -7599,13 +7599,13 @@
         <v>2515.712001712162</v>
       </c>
       <c r="T43" t="n">
-        <v>2269.853275550749</v>
+        <v>2269.85327555075</v>
       </c>
       <c r="U43" t="n">
         <v>1991.420539317814</v>
       </c>
       <c r="V43" t="n">
-        <v>1704.465031188244</v>
+        <v>1704.465031188245</v>
       </c>
       <c r="W43" t="n">
         <v>1432.438626774536</v>
@@ -7614,7 +7614,7 @@
         <v>1187.046872107949</v>
       </c>
       <c r="Y43" t="n">
-        <v>959.6272014220567</v>
+        <v>959.6272014220572</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>722.7216199406969</v>
+        <v>1424.724444463162</v>
       </c>
       <c r="C44" t="n">
-        <v>722.7216199406969</v>
+        <v>1424.724444463162</v>
       </c>
       <c r="D44" t="n">
-        <v>722.7216199406969</v>
+        <v>1424.724444463162</v>
       </c>
       <c r="E44" t="n">
-        <v>722.7216199406969</v>
+        <v>1171.77126403169</v>
       </c>
       <c r="F44" t="n">
-        <v>722.7216199406969</v>
+        <v>743.9038344408982</v>
       </c>
       <c r="G44" t="n">
-        <v>323.218928620174</v>
+        <v>342.516814019946</v>
       </c>
       <c r="H44" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="I44" t="n">
-        <v>124.697327415265</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="J44" t="n">
-        <v>282.3441026587103</v>
+        <v>489.6513714049352</v>
       </c>
       <c r="K44" t="n">
-        <v>518.6157530379312</v>
+        <v>1151.68141381048</v>
       </c>
       <c r="L44" t="n">
-        <v>811.7316279018319</v>
+        <v>1289.83969920455</v>
       </c>
       <c r="M44" t="n">
-        <v>1137.879516070619</v>
+        <v>1291.700232090473</v>
       </c>
       <c r="N44" t="n">
-        <v>1469.304818047096</v>
+        <v>1293.590870343618</v>
       </c>
       <c r="O44" t="n">
-        <v>1782.260332588389</v>
+        <v>1295.376146433873</v>
       </c>
       <c r="P44" t="n">
-        <v>2049.360623767658</v>
+        <v>1957.406188839418</v>
       </c>
       <c r="Q44" t="n">
-        <v>2558.192273920079</v>
+        <v>2505.049203913556</v>
       </c>
       <c r="R44" t="n">
         <v>2674.86885820422</v>
       </c>
       <c r="S44" t="n">
-        <v>2634.402488419017</v>
+        <v>2674.86885820422</v>
       </c>
       <c r="T44" t="n">
-        <v>2422.631236888129</v>
+        <v>2454.848956036203</v>
       </c>
       <c r="U44" t="n">
-        <v>2163.560545409643</v>
+        <v>2195.627518229682</v>
       </c>
       <c r="V44" t="n">
-        <v>1800.943595343469</v>
+        <v>1833.010568163509</v>
       </c>
       <c r="W44" t="n">
-        <v>1396.088140754503</v>
+        <v>1833.010568163509</v>
       </c>
       <c r="X44" t="n">
-        <v>976.9456773338135</v>
+        <v>1833.010568163509</v>
       </c>
       <c r="Y44" t="n">
-        <v>976.9456773338135</v>
+        <v>1424.724444463162</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>548.8621306815207</v>
+        <v>559.6074729349947</v>
       </c>
       <c r="C45" t="n">
-        <v>442.4056695181631</v>
+        <v>453.1510117716369</v>
       </c>
       <c r="D45" t="n">
-        <v>347.3153806647163</v>
+        <v>358.0607229181902</v>
       </c>
       <c r="E45" t="n">
-        <v>253.19496599167</v>
+        <v>263.9403082451439</v>
       </c>
       <c r="F45" t="n">
-        <v>169.8111276078316</v>
+        <v>180.5564698613055</v>
       </c>
       <c r="G45" t="n">
-        <v>85.44002719748815</v>
+        <v>95.17716449878458</v>
       </c>
       <c r="H45" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="I45" t="n">
-        <v>87.71411333556051</v>
+        <v>79.75624203114305</v>
       </c>
       <c r="J45" t="n">
-        <v>181.6074526820276</v>
+        <v>404.85018795938</v>
       </c>
       <c r="K45" t="n">
-        <v>342.0861247361977</v>
+        <v>930.7751080701959</v>
       </c>
       <c r="L45" t="n">
-        <v>557.8695036112202</v>
+        <v>932.0060590810601</v>
       </c>
       <c r="M45" t="n">
-        <v>809.6785289139177</v>
+        <v>933.4425208505304</v>
       </c>
       <c r="N45" t="n">
-        <v>1068.152189835238</v>
+        <v>934.9170014887131</v>
       </c>
       <c r="O45" t="n">
-        <v>1304.605092649768</v>
+        <v>936.2658632094758</v>
       </c>
       <c r="P45" t="n">
-        <v>1494.379393214574</v>
+        <v>1598.29590561502</v>
       </c>
       <c r="Q45" t="n">
-        <v>1621.238487422809</v>
+        <v>1599.019581975392</v>
       </c>
       <c r="R45" t="n">
-        <v>1682.941941848722</v>
+        <v>1716.544351636438</v>
       </c>
       <c r="S45" t="n">
-        <v>1638.320911248456</v>
+        <v>1653.196356244623</v>
       </c>
       <c r="T45" t="n">
-        <v>1512.229356124109</v>
+        <v>1523.041027650752</v>
       </c>
       <c r="U45" t="n">
-        <v>1335.95951894799</v>
+        <v>1346.704861201464</v>
       </c>
       <c r="V45" t="n">
-        <v>1136.842001009989</v>
+        <v>1147.587343263463</v>
       </c>
       <c r="W45" t="n">
-        <v>951.5192467431832</v>
+        <v>962.264588996657</v>
       </c>
       <c r="X45" t="n">
-        <v>796.6518109820631</v>
+        <v>807.3971532355371</v>
       </c>
       <c r="Y45" t="n">
-        <v>670.1660317612839</v>
+        <v>680.9113740147578</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.582666838761</v>
+        <v>1132.361737215236</v>
       </c>
       <c r="C46" t="n">
-        <v>926.0209553219858</v>
+        <v>959.8000256984611</v>
       </c>
       <c r="D46" t="n">
-        <v>760.1429625235085</v>
+        <v>793.9220328999838</v>
       </c>
       <c r="E46" t="n">
-        <v>590.3849587742458</v>
+        <v>624.164029150721</v>
       </c>
       <c r="F46" t="n">
-        <v>413.677904736002</v>
+        <v>447.4569751124773</v>
       </c>
       <c r="G46" t="n">
-        <v>248.9367243485204</v>
+        <v>281.8705495608892</v>
       </c>
       <c r="H46" t="n">
-        <v>116.5926637278363</v>
+        <v>142.0114910266034</v>
       </c>
       <c r="I46" t="n">
-        <v>53.49737716408439</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="J46" t="n">
-        <v>198.9827260309573</v>
+        <v>140.4130937073625</v>
       </c>
       <c r="K46" t="n">
-        <v>570.541281169651</v>
+        <v>415.7237510582794</v>
       </c>
       <c r="L46" t="n">
-        <v>1112.62196455591</v>
+        <v>834.6402622675976</v>
       </c>
       <c r="M46" t="n">
-        <v>1243.22635689444</v>
+        <v>1294.869171117663</v>
       </c>
       <c r="N46" t="n">
-        <v>1434.726638710896</v>
+        <v>1737.855300518818</v>
       </c>
       <c r="O46" t="n">
-        <v>1972.161769284439</v>
+        <v>2158.196353251645</v>
       </c>
       <c r="P46" t="n">
-        <v>2420.437719432464</v>
+        <v>2506.278091179906</v>
       </c>
       <c r="Q46" t="n">
-        <v>2658.397765527452</v>
+        <v>2674.86885820422</v>
       </c>
       <c r="R46" t="n">
-        <v>2674.86885820422</v>
+        <v>2653.669084583243</v>
       </c>
       <c r="S46" t="n">
-        <v>2530.442319708454</v>
+        <v>2494.512228091185</v>
       </c>
       <c r="T46" t="n">
-        <v>2530.442319708454</v>
+        <v>2494.512228091185</v>
       </c>
       <c r="U46" t="n">
-        <v>2322.194623453505</v>
+        <v>2355.973693829981</v>
       </c>
       <c r="V46" t="n">
-        <v>2035.239115323936</v>
+        <v>2069.018185700411</v>
       </c>
       <c r="W46" t="n">
-        <v>1763.212710910227</v>
+        <v>1796.991781286703</v>
       </c>
       <c r="X46" t="n">
-        <v>1517.82095624364</v>
+        <v>1551.600026620115</v>
       </c>
       <c r="Y46" t="n">
-        <v>1290.401285557748</v>
+        <v>1324.180355934223</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8145,13 +8145,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8218,19 +8218,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -8379,7 +8379,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M7" t="n">
         <v>424.2958575201044</v>
@@ -8388,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8464,10 +8464,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O8" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -8537,7 +8537,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8616,7 +8616,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M10" t="n">
         <v>424.2958575201044</v>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>424.2958575201043</v>
+        <v>423.3874668252226</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>422.6068681142804</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>236.2898988798406</v>
+        <v>422.4925483380279</v>
       </c>
       <c r="P11" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2958575201044</v>
+        <v>398.6349043018113</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,10 +8771,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>424.2958575201044</v>
+        <v>423.3711488973249</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>351.0002631699632</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>424.2958575201044</v>
+        <v>423.5648712975069</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>423.543290177526</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201043</v>
+        <v>423.5611845468617</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>423.6172681190484</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>147.2130352499482</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>227.4278351761743</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>422.9344153444721</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>422.6068681142804</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>228.4029046030447</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>422.492548338028</v>
       </c>
       <c r="P14" t="n">
         <v>422.7567748542347</v>
       </c>
       <c r="Q14" t="n">
-        <v>423.1400705347066</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9011,7 +9011,7 @@
         <v>423.3711488973249</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>351.0002631699632</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>351.0002631699631</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>423.5648712975069</v>
@@ -9090,16 +9090,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>423.5432901775259</v>
+        <v>366.9496969727396</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>365.8406308032551</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>423.3874668252226</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>227.2390102116305</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9175,13 +9175,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>227.8697021826185</v>
       </c>
       <c r="O17" t="n">
-        <v>422.492548338028</v>
+        <v>422.4925483380279</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>422.7567748542347</v>
       </c>
       <c r="Q17" t="n">
         <v>423.1400705347066</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>423.3711488973249</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>351.1690701518925</v>
       </c>
       <c r="P18" t="n">
-        <v>351.0002631699631</v>
+        <v>423.2023419153954</v>
       </c>
       <c r="Q18" t="n">
         <v>423.5648712975069</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>234.6672626890288</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>423.543290177526</v>
+        <v>113.224120635845</v>
       </c>
       <c r="N19" t="n">
-        <v>423.5611845468618</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>423.6172681190485</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>227.8697021826185</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>423.3711488973249</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>351.1690701518925</v>
       </c>
       <c r="P21" t="n">
-        <v>351.0002631699631</v>
+        <v>423.2023419153954</v>
       </c>
       <c r="Q21" t="n">
         <v>423.5648712975069</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>423.543290177526</v>
+        <v>366.9496969727396</v>
       </c>
       <c r="N22" t="n">
-        <v>235.7942232278491</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.6172681190485</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>651.7353352515871</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>651.7353352515875</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9886,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>138.3067012309936</v>
+        <v>138.306701230994</v>
       </c>
       <c r="O26" t="n">
-        <v>666.9139053689785</v>
+        <v>666.9139053689786</v>
       </c>
       <c r="P26" t="n">
         <v>667.1781318851852</v>
@@ -10041,7 +10041,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645581</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>667.3557723754228</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>667.0282251452309</v>
+        <v>577.9579006783857</v>
       </c>
       <c r="M29" t="n">
-        <v>666.8378884036576</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>23.19582827659815</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>666.9139053689786</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>667.1781318851852</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>651.7353352515871</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>651.735335251587</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10281,7 +10281,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956001</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10354,7 +10354,7 @@
         <v>667.3557723754228</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>137.8648342245497</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>137.8648342245492</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>667.1781318851852</v>
@@ -10430,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>651.7353352515871</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>651.735335251587</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10509,7 +10509,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.533792496096</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10588,19 +10588,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>667.3557723754228</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>137.8648342245497</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>138.3067012309936</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>666.9139053689785</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>667.1781318851852</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908051</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>667.3557723754227</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>667.028225145231</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>138.306701230994</v>
       </c>
       <c r="O38" t="n">
-        <v>81.35050019646474</v>
+        <v>666.9139053689786</v>
       </c>
       <c r="P38" t="n">
-        <v>667.1781318851849</v>
+        <v>667.1781318851852</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908051</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -10992,7 +10992,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956001</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
@@ -11062,7 +11062,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>667.3557723754228</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11071,13 +11071,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>138.306701230994</v>
       </c>
       <c r="O41" t="n">
-        <v>137.8648342245503</v>
+        <v>666.9139053689786</v>
       </c>
       <c r="P41" t="n">
-        <v>667.1781318851854</v>
+        <v>667.1781318851852</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>651.7353352515871</v>
       </c>
       <c r="L42" t="n">
-        <v>335.4778324348413</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>667.354727964426</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>667.6236989463459</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>667.3557723754228</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>137.8648342245497</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11314,13 +11314,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>667.1781318851852</v>
       </c>
       <c r="Q44" t="n">
-        <v>311.3640961023771</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>530.3125844184488</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>667.6236989463461</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908051</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11463,10 +11463,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>64.64784849754255</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>55.57161293354659</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -22564,7 +22564,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22600,22 +22600,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>278.129066730972</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22707,16 +22707,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>160.2474370261064</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22725,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>20.78977749077791</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -22789,13 +22789,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>12.40268187888933</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>304.2397609072842</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22804,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22840,19 +22840,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22941,16 +22941,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>74.49919881847789</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22995,16 +22995,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>169.858498369137</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>131.1321385543523</v>
       </c>
       <c r="C8" t="n">
         <v>9.465190568306582</v>
@@ -23029,7 +23029,7 @@
         <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -23041,7 +23041,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,10 +23074,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>174.6600010316479</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -23086,7 +23086,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23181,7 +23181,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -23190,13 +23190,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>5.063664129253425</v>
       </c>
       <c r="G10" t="n">
-        <v>21.26691790697294</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23226,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23263,19 +23263,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>22.1763276537107</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>14.02476227955043</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.49919881847789</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>15.81916733291973</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,10 +23497,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -23509,10 +23509,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H14" t="n">
-        <v>200.8959719119567</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>82.5714639696243</v>
       </c>
       <c r="T14" t="n">
-        <v>217.819703146337</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6292234284552</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>35.42405831649177</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>163.9305612960722</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>155.7388117350762</v>
       </c>
       <c r="T16" t="n">
         <v>243.400138899798</v>
@@ -23712,13 +23712,13 @@
         <v>275.6484088706061</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>94.07459873320417</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>88.81353224270907</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23740,7 +23740,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>226.1297068419013</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.5714639696243</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.819703146337</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6292234284552</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9305612960722</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S19" t="n">
-        <v>157.5652879271376</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.400138899798</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6484088706061</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>205.8154511756378</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>51.48187635032056</v>
       </c>
     </row>
     <row r="20">
@@ -23974,16 +23974,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>393.4061049903628</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>409.673358214001</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H22" t="n">
         <v>138.4604679489429</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S22" t="n">
         <v>157.5652879271376</v>
       </c>
       <c r="T22" t="n">
-        <v>243.400138899798</v>
+        <v>83.81702095498025</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6484088706061</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>231.2855445227672</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>389.7243502287459</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -24451,10 +24451,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>40.36874716915219</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.819703146337</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I28" t="n">
         <v>87.62897272389382</v>
@@ -24651,10 +24651,10 @@
         <v>20.98777588476758</v>
       </c>
       <c r="S28" t="n">
-        <v>157.5652879271376</v>
+        <v>134.8181822942079</v>
       </c>
       <c r="T28" t="n">
-        <v>115.7133623160138</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>115.6065547571469</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24691,13 +24691,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3731502167427</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>286.1292424873029</v>
+        <v>148.8310709010945</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>82.5714639696243</v>
       </c>
       <c r="T29" t="n">
-        <v>217.819703146337</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>117.5074840672466</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S31" t="n">
-        <v>157.5652879271376</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U31" t="n">
-        <v>224.3301109246751</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24925,10 +24925,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>258.1884503154894</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>141.7455349075179</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>109.0594373726586</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I34" t="n">
         <v>87.62897272389382</v>
@@ -25125,7 +25125,7 @@
         <v>20.98777588476758</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>134.8181822942079</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>231.4025348707187</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.1292424873029</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.5714639696243</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.819703146337</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6292234284552</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>336.3108105704513</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.86964297573216</v>
+        <v>47.12874315413254</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.5652879271376</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>150.3832514159202</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3731502167427</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.1292424873029</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>357.4263287075304</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>32.5062406383002</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>109.3480889470785</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>20.98777588476758</v>
       </c>
       <c r="S40" t="n">
-        <v>157.5652879271376</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>369.0227829139905</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>224.316998877143</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>134.8181822942078</v>
       </c>
       <c r="H43" t="n">
-        <v>105.218226531381</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I43" t="n">
-        <v>87.62897272389384</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.9877758847676</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>170.3547579608733</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -25873,10 +25873,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>179.0133487661309</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U46" t="n">
-        <v>69.43754633934492</v>
+        <v>138.4952599520142</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355451.1038288492</v>
+        <v>355451.1038288493</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355451.1038288492</v>
+        <v>355281.3510619673</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355281.3510619674</v>
+        <v>355281.3510619673</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>500578.5112481844</v>
+        <v>500578.5112481845</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>500578.5112481842</v>
+        <v>500578.5112481845</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>461957.9329881253</v>
+        <v>500578.5112481844</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108182.1038058662</v>
+        <v>108182.1038058661</v>
       </c>
       <c r="C2" t="n">
         <v>108182.1038058662</v>
@@ -26322,16 +26322,16 @@
         <v>108182.1038058662</v>
       </c>
       <c r="E2" t="n">
-        <v>108182.1038058662</v>
+        <v>108217.1700650496</v>
       </c>
       <c r="F2" t="n">
-        <v>108217.1700650496</v>
+        <v>108217.1700650497</v>
       </c>
       <c r="G2" t="n">
         <v>108217.1700650496</v>
       </c>
       <c r="H2" t="n">
-        <v>108217.1700650496</v>
+        <v>108217.1700650497</v>
       </c>
       <c r="I2" t="n">
         <v>152438.5898233392</v>
@@ -26340,7 +26340,7 @@
         <v>152438.5898233391</v>
       </c>
       <c r="K2" t="n">
-        <v>152438.5898233391</v>
+        <v>152438.5898233392</v>
       </c>
       <c r="L2" t="n">
         <v>152438.5898233392</v>
@@ -26349,13 +26349,13 @@
         <v>152438.5898233392</v>
       </c>
       <c r="N2" t="n">
-        <v>152438.5898233391</v>
+        <v>152438.5898233392</v>
       </c>
       <c r="O2" t="n">
         <v>152438.5898233392</v>
       </c>
       <c r="P2" t="n">
-        <v>155794.7440272386</v>
+        <v>152438.5898233391</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2138.926318186947</v>
       </c>
       <c r="F3" t="n">
-        <v>2104.42780718927</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>308853.6175446043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>43292.95496317923</v>
       </c>
       <c r="E4" t="n">
-        <v>43292.95496317923</v>
+        <v>43021.8872846625</v>
       </c>
       <c r="F4" t="n">
-        <v>43021.88728466249</v>
+        <v>43021.8872846625</v>
       </c>
       <c r="G4" t="n">
-        <v>43021.88728466249</v>
+        <v>43021.8872846625</v>
       </c>
       <c r="H4" t="n">
-        <v>43021.88728466249</v>
+        <v>43021.8872846625</v>
       </c>
       <c r="I4" t="n">
         <v>60718.67692594198</v>
       </c>
       <c r="J4" t="n">
-        <v>60718.67692594197</v>
+        <v>60718.67692594198</v>
       </c>
       <c r="K4" t="n">
-        <v>60718.67692594197</v>
+        <v>60718.67692594198</v>
       </c>
       <c r="L4" t="n">
-        <v>60718.67692594197</v>
+        <v>60718.67692594199</v>
       </c>
       <c r="M4" t="n">
-        <v>60718.67692594197</v>
+        <v>60718.67692594198</v>
       </c>
       <c r="N4" t="n">
-        <v>60718.67692594197</v>
+        <v>60718.67692594198</v>
       </c>
       <c r="O4" t="n">
-        <v>60718.676925942</v>
+        <v>60718.67692594198</v>
       </c>
       <c r="P4" t="n">
-        <v>12400.38337657498</v>
+        <v>60718.67692594198</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="E5" t="n">
-        <v>25797.18813722234</v>
+        <v>25855.22699659488</v>
       </c>
       <c r="F5" t="n">
         <v>25855.22699659488</v>
@@ -26508,10 +26508,10 @@
         <v>40716.04550407668</v>
       </c>
       <c r="O5" t="n">
-        <v>40716.04550407667</v>
+        <v>40716.04550407668</v>
       </c>
       <c r="P5" t="n">
-        <v>50832.10867713636</v>
+        <v>40716.04550407668</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136726.9399542453</v>
+        <v>-137466.296566161</v>
       </c>
       <c r="C6" t="n">
-        <v>5464.360705464584</v>
+        <v>4725.004093548944</v>
       </c>
       <c r="D6" t="n">
-        <v>5464.360705464584</v>
+        <v>4725.00409354893</v>
       </c>
       <c r="E6" t="n">
-        <v>39091.9607054646</v>
+        <v>36461.96766624067</v>
       </c>
       <c r="F6" t="n">
-        <v>37235.62797660299</v>
+        <v>38600.89398442765</v>
       </c>
       <c r="G6" t="n">
-        <v>39340.05578379225</v>
+        <v>38600.89398442763</v>
       </c>
       <c r="H6" t="n">
-        <v>39340.05578379227</v>
+        <v>38600.89398442765</v>
       </c>
       <c r="I6" t="n">
-        <v>-13992.90428970692</v>
+        <v>-14486.39153485884</v>
       </c>
       <c r="J6" t="n">
-        <v>-60010.59795166965</v>
+        <v>-60504.08519682162</v>
       </c>
       <c r="K6" t="n">
-        <v>51003.86739332046</v>
+        <v>50510.3801481686</v>
       </c>
       <c r="L6" t="n">
-        <v>51003.86739332052</v>
+        <v>50510.38014816862</v>
       </c>
       <c r="M6" t="n">
-        <v>51003.86739332051</v>
+        <v>50510.38014816862</v>
       </c>
       <c r="N6" t="n">
-        <v>51003.86739332049</v>
+        <v>50510.3801481686</v>
       </c>
       <c r="O6" t="n">
-        <v>51003.86739332048</v>
+        <v>50510.3801481686</v>
       </c>
       <c r="P6" t="n">
-        <v>-216291.365571077</v>
+        <v>50510.38014816857</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="F3" t="n">
         <v>2.662332998740292</v>
@@ -26776,10 +26776,10 @@
         <v>2.662332998740292</v>
       </c>
       <c r="O3" t="n">
-        <v>2.662332998740008</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932211</v>
+        <v>2.662332998740292</v>
       </c>
     </row>
     <row r="4">
@@ -26813,25 +26813,25 @@
         <v>668.717214551055</v>
       </c>
       <c r="J4" t="n">
-        <v>668.7172145510549</v>
+        <v>668.717214551055</v>
       </c>
       <c r="K4" t="n">
-        <v>668.7172145510549</v>
+        <v>668.717214551055</v>
       </c>
       <c r="L4" t="n">
-        <v>668.7172145510549</v>
+        <v>668.717214551055</v>
       </c>
       <c r="M4" t="n">
-        <v>668.7172145510549</v>
+        <v>668.717214551055</v>
       </c>
       <c r="N4" t="n">
-        <v>668.7172145510549</v>
+        <v>668.717214551055</v>
       </c>
       <c r="O4" t="n">
-        <v>668.7172145510549</v>
+        <v>668.717214551055</v>
       </c>
       <c r="P4" t="n">
-        <v>668.7172145510549</v>
+        <v>668.717214551055</v>
       </c>
     </row>
   </sheetData>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="F3" t="n">
-        <v>2.662332998740292</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>464.0395950944811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>244.4213570309507</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32879,7 +32879,7 @@
         <v>0.7525673425783418</v>
       </c>
       <c r="N25" t="n">
-        <v>0.734672973242547</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O25" t="n">
         <v>0.6785894010559684</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01070284622609048</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1096105239129491</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313535</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9083906948816475</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K41" t="n">
-        <v>1.361442175632058</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L41" t="n">
-        <v>1.688989405823774</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M41" t="n">
-        <v>1.879326147397011</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N41" t="n">
-        <v>1.909735609236891</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O41" t="n">
-        <v>1.803309182076203</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P41" t="n">
-        <v>1.539082665869594</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.155786985397729</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R41" t="n">
-        <v>0.6723126642496565</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S41" t="n">
-        <v>0.243891108377037</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T41" t="n">
-        <v>0.04685170935471109</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U41" t="n">
-        <v>0.000856227698087238</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.005726527582195489</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H42" t="n">
-        <v>0.05530620059646697</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1971633400010289</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5410312747722502</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K42" t="n">
-        <v>0.924708622779348</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L42" t="n">
-        <v>1.243384859458718</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M42" t="n">
-        <v>1.450971484313304</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N42" t="n">
-        <v>1.489374382002677</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O42" t="n">
-        <v>1.362486586628766</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P42" t="n">
-        <v>1.093515604708891</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.7309862225974454</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R42" t="n">
-        <v>0.3555470370770148</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S42" t="n">
-        <v>0.1063677382043767</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T42" t="n">
-        <v>0.02308192477209497</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U42" t="n">
-        <v>0.000376745235670756</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.004800928358383621</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H43" t="n">
-        <v>0.04268461758635622</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1443770091775729</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J43" t="n">
-        <v>0.339425634937722</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5577805856376605</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L43" t="n">
-        <v>0.7137671124818704</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M43" t="n">
-        <v>0.7525673425782615</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N43" t="n">
-        <v>0.7346729732424686</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O43" t="n">
-        <v>0.678589401055896</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P43" t="n">
-        <v>0.5806504625448697</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4020122828097412</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R43" t="n">
-        <v>0.2158671969142308</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S43" t="n">
-        <v>0.08366708784564907</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T43" t="n">
-        <v>0.02051305753127547</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0002618688195481978</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651139</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H44" t="n">
-        <v>19.21451706968723</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I44" t="n">
-        <v>72.3317631469906</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065037</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.003849430238249</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233623</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183764</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051976</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495698</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998885</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O46" t="n">
-        <v>118.9554357048099</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207639</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195198</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34865,13 +34865,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34938,19 +34938,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -35099,7 +35099,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M7" t="n">
         <v>424.2958575201044</v>
@@ -35108,7 +35108,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35184,10 +35184,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O8" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -35257,7 +35257,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35336,7 +35336,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M10" t="n">
         <v>424.2958575201044</v>
@@ -35345,7 +35345,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -35412,28 +35412,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1.361442175632192</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.879326147397251</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.909735609237146</v>
       </c>
       <c r="O11" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P11" t="n">
-        <v>424.2958575201044</v>
+        <v>1.539082665869728</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2958575201044</v>
+        <v>399.790691287209</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0.67231266424983</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.52410592632186</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K12" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>352.243648029422</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.362486586628847</v>
       </c>
       <c r="P12" t="n">
-        <v>358.9284720888814</v>
+        <v>1.093515604708955</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.5577805856377154</v>
       </c>
       <c r="L13" t="n">
-        <v>310.9272166398487</v>
+        <v>0.7137671124819462</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N13" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>147.7936857124932</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821539</v>
+        <v>170.2937040649638</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>228.336225871056</v>
+        <v>0.9083906948817457</v>
       </c>
       <c r="K14" t="n">
+        <v>1.361442175632206</v>
+      </c>
+      <c r="L14" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L14" t="n">
-        <v>1.688989405823918</v>
-      </c>
       <c r="M14" t="n">
-        <v>1.879326147397251</v>
+        <v>230.2822307504419</v>
       </c>
       <c r="N14" t="n">
         <v>1.909735609237146</v>
       </c>
       <c r="O14" t="n">
-        <v>1.803309182076418</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P14" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>1.155786985397754</v>
       </c>
       <c r="R14" t="n">
         <v>171.5350043340043</v>
@@ -35731,7 +35731,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>1.243384859458843</v>
+        <v>352.243648029422</v>
       </c>
       <c r="M15" t="n">
         <v>1.450971484313413</v>
@@ -35740,10 +35740,10 @@
         <v>1.489374382002779</v>
       </c>
       <c r="O15" t="n">
-        <v>1.362486586628961</v>
+        <v>1.362486586628847</v>
       </c>
       <c r="P15" t="n">
-        <v>352.093778774672</v>
+        <v>1.093515604708955</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -35810,16 +35810,16 @@
         <v>278.0915730817343</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7137671124819462</v>
+        <v>423.1479911205234</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>367.702264315318</v>
       </c>
       <c r="N16" t="n">
         <v>0.7346729732425956</v>
       </c>
       <c r="O16" t="n">
-        <v>366.5192202043111</v>
+        <v>0.6785894010558877</v>
       </c>
       <c r="P16" t="n">
         <v>351.5977150790518</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0.9083906948817457</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.361442175632206</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.688989405823953</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.879326147397208</v>
+      </c>
+      <c r="N17" t="n">
+        <v>229.7794377918556</v>
+      </c>
+      <c r="O17" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K17" t="n">
-        <v>228.6004523872627</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.688989405823918</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.879326147397251</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.909735609237146</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.539082665869728</v>
       </c>
       <c r="Q17" t="n">
         <v>424.2958575201044</v>
@@ -35965,22 +35965,22 @@
         <v>328.3777231598353</v>
       </c>
       <c r="K18" t="n">
-        <v>424.2958575201044</v>
+        <v>0.9247086227794625</v>
       </c>
       <c r="L18" t="n">
         <v>1.243384859458843</v>
       </c>
       <c r="M18" t="n">
-        <v>1.450971484313413</v>
+        <v>1.45097148431347</v>
       </c>
       <c r="N18" t="n">
-        <v>1.489374382002779</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O18" t="n">
-        <v>1.362486586628961</v>
+        <v>352.5315567385214</v>
       </c>
       <c r="P18" t="n">
-        <v>352.093778774672</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3394256349377613</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5577805856377225</v>
+        <v>278.0915730817343</v>
       </c>
       <c r="L19" t="n">
-        <v>235.3810298015107</v>
+        <v>423.1479911205234</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201043</v>
+        <v>113.9766879784233</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201044</v>
+        <v>0.7346729732425956</v>
       </c>
       <c r="O19" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5806504625450088</v>
+        <v>351.5977150790518</v>
       </c>
       <c r="Q19" t="n">
-        <v>170.2937040649638</v>
+        <v>0.402012282809892</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>228.7780928775003</v>
+        <v>0.9083906948817457</v>
       </c>
       <c r="K20" t="n">
-        <v>1.361442175632192</v>
+        <v>229.2311443582507</v>
       </c>
       <c r="L20" t="n">
         <v>1.688989405823975</v>
@@ -36202,22 +36202,22 @@
         <v>328.3777231598353</v>
       </c>
       <c r="K21" t="n">
-        <v>424.2958575201044</v>
+        <v>0.9247086227794625</v>
       </c>
       <c r="L21" t="n">
         <v>1.243384859458843</v>
       </c>
       <c r="M21" t="n">
-        <v>1.450971484313413</v>
+        <v>1.45097148431347</v>
       </c>
       <c r="N21" t="n">
-        <v>1.489374382002779</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O21" t="n">
-        <v>1.362486586628961</v>
+        <v>352.5315567385214</v>
       </c>
       <c r="P21" t="n">
-        <v>352.093778774672</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q21" t="n">
         <v>424.2958575201044</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3394256349377613</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5577805856377225</v>
+        <v>278.0915730817343</v>
       </c>
       <c r="L22" t="n">
         <v>423.1479911205234</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201043</v>
+        <v>367.702264315318</v>
       </c>
       <c r="N22" t="n">
-        <v>236.5288962010917</v>
+        <v>0.7346729732425956</v>
       </c>
       <c r="O22" t="n">
-        <v>424.2958575201044</v>
+        <v>0.6785894010558877</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5806504625450088</v>
+        <v>351.5977150790518</v>
       </c>
       <c r="Q22" t="n">
         <v>170.2937040649638</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.52410592632179</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J24" t="n">
         <v>328.3777231598353</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9247086227794625</v>
+        <v>652.6600438743666</v>
       </c>
       <c r="L24" t="n">
         <v>1.243384859458956</v>
@@ -36454,7 +36454,7 @@
         <v>1.362486586628847</v>
       </c>
       <c r="P24" t="n">
-        <v>652.8288508562964</v>
+        <v>1.093515604708955</v>
       </c>
       <c r="Q24" t="n">
         <v>546.9319343358052</v>
@@ -36606,10 +36606,10 @@
         <v>1.879326147397194</v>
       </c>
       <c r="N26" t="n">
-        <v>140.2164368402307</v>
+        <v>140.216436840231</v>
       </c>
       <c r="O26" t="n">
-        <v>668.7172145510549</v>
+        <v>668.717214551055</v>
       </c>
       <c r="P26" t="n">
         <v>668.7172145510549</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.52410592632185</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J27" t="n">
         <v>328.3777231598353</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.79365307401841</v>
+        <v>87.79365307401839</v>
       </c>
       <c r="K28" t="n">
         <v>278.0915730817343</v>
@@ -36761,7 +36761,7 @@
         <v>423.1479911205234</v>
       </c>
       <c r="M28" t="n">
-        <v>464.8776857071365</v>
+        <v>464.8776857071369</v>
       </c>
       <c r="N28" t="n">
         <v>447.4607367688432</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>440.5595901422736</v>
+        <v>0.9083906948817457</v>
       </c>
       <c r="K29" t="n">
+        <v>1.361442175632206</v>
+      </c>
+      <c r="L29" t="n">
+        <v>579.6468900842096</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.879326147397251</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.909735609237146</v>
+      </c>
+      <c r="O29" t="n">
         <v>668.717214551055</v>
       </c>
-      <c r="L29" t="n">
+      <c r="P29" t="n">
         <v>668.7172145510549</v>
       </c>
-      <c r="M29" t="n">
-        <v>668.7172145510549</v>
-      </c>
-      <c r="N29" t="n">
-        <v>25.10556388583518</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.803309182076191</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.539082665869955</v>
-      </c>
       <c r="Q29" t="n">
-        <v>1.155786985397754</v>
+        <v>553.17476270115</v>
       </c>
       <c r="R29" t="n">
         <v>171.535004334004</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.52410592632185</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J30" t="n">
         <v>328.3777231598353</v>
       </c>
       <c r="K30" t="n">
-        <v>652.6600438743666</v>
+        <v>0.9247086227794625</v>
       </c>
       <c r="L30" t="n">
-        <v>1.243384859458956</v>
+        <v>1.243384859458843</v>
       </c>
       <c r="M30" t="n">
-        <v>1.450971484313413</v>
+        <v>1.45097148431347</v>
       </c>
       <c r="N30" t="n">
-        <v>1.489374382002779</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O30" t="n">
-        <v>1.362486586628847</v>
+        <v>1.362486586628904</v>
       </c>
       <c r="P30" t="n">
-        <v>1.093515604708955</v>
+        <v>652.828850856296</v>
       </c>
       <c r="Q30" t="n">
         <v>546.9319343358052</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.79365307401841</v>
+        <v>87.79365307401839</v>
       </c>
       <c r="K31" t="n">
         <v>278.0915730817343</v>
@@ -37001,7 +37001,7 @@
         <v>464.8776857071369</v>
       </c>
       <c r="N31" t="n">
-        <v>447.4607367688427</v>
+        <v>447.4607367688432</v>
       </c>
       <c r="O31" t="n">
         <v>424.5869219523504</v>
@@ -37074,7 +37074,7 @@
         <v>668.717214551055</v>
       </c>
       <c r="L32" t="n">
-        <v>1.688989405824032</v>
+        <v>139.5538236303737</v>
       </c>
       <c r="M32" t="n">
         <v>1.879326147397251</v>
@@ -37083,7 +37083,7 @@
         <v>1.909735609237032</v>
       </c>
       <c r="O32" t="n">
-        <v>139.6681434066256</v>
+        <v>1.803309182076418</v>
       </c>
       <c r="P32" t="n">
         <v>668.7172145510549</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.52410592632185</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J33" t="n">
         <v>328.3777231598353</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9247086227794625</v>
+        <v>652.6600438743666</v>
       </c>
       <c r="L33" t="n">
-        <v>1.243384859458843</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M33" t="n">
-        <v>1.45097148431347</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N33" t="n">
-        <v>1.489374382002836</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O33" t="n">
-        <v>1.362486586628904</v>
+        <v>1.362486586628847</v>
       </c>
       <c r="P33" t="n">
-        <v>652.828850856296</v>
+        <v>1.093515604708955</v>
       </c>
       <c r="Q33" t="n">
         <v>546.9319343358052</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.79365307401841</v>
+        <v>87.79365307401839</v>
       </c>
       <c r="K34" t="n">
-        <v>278.0915730817337</v>
+        <v>278.0915730817343</v>
       </c>
       <c r="L34" t="n">
         <v>423.1479911205234</v>
       </c>
       <c r="M34" t="n">
-        <v>464.8776857071371</v>
+        <v>464.8776857071369</v>
       </c>
       <c r="N34" t="n">
         <v>447.4607367688432</v>
@@ -37308,19 +37308,19 @@
         <v>440.5595901422736</v>
       </c>
       <c r="K35" t="n">
-        <v>1.361442175632192</v>
+        <v>668.717214551055</v>
       </c>
       <c r="L35" t="n">
-        <v>1.688989405823975</v>
+        <v>139.5538236303737</v>
       </c>
       <c r="M35" t="n">
-        <v>1.879326147397194</v>
+        <v>1.879326147397251</v>
       </c>
       <c r="N35" t="n">
-        <v>140.2164368402307</v>
+        <v>1.909735609237032</v>
       </c>
       <c r="O35" t="n">
-        <v>668.7172145510549</v>
+        <v>1.803309182076418</v>
       </c>
       <c r="P35" t="n">
         <v>668.7172145510549</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.52410592632185</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J36" t="n">
         <v>328.3777231598353</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.79365307401841</v>
+        <v>87.79365307401828</v>
       </c>
       <c r="K37" t="n">
-        <v>278.0915730817341</v>
+        <v>278.0915730817343</v>
       </c>
       <c r="L37" t="n">
-        <v>423.1479911205233</v>
+        <v>423.1479911205234</v>
       </c>
       <c r="M37" t="n">
         <v>464.8776857071371</v>
@@ -37478,7 +37478,7 @@
         <v>447.4607367688432</v>
       </c>
       <c r="O37" t="n">
-        <v>424.5869219523502</v>
+        <v>424.5869219523504</v>
       </c>
       <c r="P37" t="n">
         <v>351.5977150790518</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9083906948817457</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K38" t="n">
-        <v>668.7172145510549</v>
+        <v>1.361442175632192</v>
       </c>
       <c r="L38" t="n">
-        <v>668.7172145510549</v>
+        <v>1.688989405823975</v>
       </c>
       <c r="M38" t="n">
-        <v>1.879326147397251</v>
+        <v>1.879326147397194</v>
       </c>
       <c r="N38" t="n">
-        <v>1.909735609237032</v>
+        <v>140.216436840231</v>
       </c>
       <c r="O38" t="n">
-        <v>83.15380937854115</v>
+        <v>668.717214551055</v>
       </c>
       <c r="P38" t="n">
         <v>668.7172145510549</v>
@@ -37566,7 +37566,7 @@
         <v>553.17476270115</v>
       </c>
       <c r="R38" t="n">
-        <v>0.6723126642496027</v>
+        <v>171.535004334004</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.52410592632185</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J39" t="n">
         <v>328.3777231598353</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.79365307401841</v>
+        <v>87.79365307401828</v>
       </c>
       <c r="K40" t="n">
         <v>278.0915730817343</v>
@@ -37709,10 +37709,10 @@
         <v>423.1479911205234</v>
       </c>
       <c r="M40" t="n">
-        <v>464.8776857071369</v>
+        <v>464.8776857071371</v>
       </c>
       <c r="N40" t="n">
-        <v>447.4607367688427</v>
+        <v>447.4607367688432</v>
       </c>
       <c r="O40" t="n">
         <v>424.5869219523504</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>440.5595901422735</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K41" t="n">
-        <v>668.7172145510549</v>
+        <v>1.361442175632192</v>
       </c>
       <c r="L41" t="n">
-        <v>1.688989405823804</v>
+        <v>1.688989405823975</v>
       </c>
       <c r="M41" t="n">
-        <v>1.879326147397023</v>
+        <v>1.879326147397194</v>
       </c>
       <c r="N41" t="n">
-        <v>1.909735609236805</v>
+        <v>140.216436840231</v>
       </c>
       <c r="O41" t="n">
-        <v>139.6681434066265</v>
+        <v>668.717214551055</v>
       </c>
       <c r="P41" t="n">
         <v>668.7172145510549</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1971633400010262</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5410312747722514</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9247086227793488</v>
+        <v>652.6600438743666</v>
       </c>
       <c r="L42" t="n">
-        <v>336.7212172943</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M42" t="n">
-        <v>1.4509714843133</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N42" t="n">
-        <v>1.489374382002723</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O42" t="n">
-        <v>668.7172145510549</v>
+        <v>1.362486586628847</v>
       </c>
       <c r="P42" t="n">
-        <v>668.7172145510549</v>
+        <v>1.093515604708955</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.7309862225974939</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R42" t="n">
-        <v>0.3555470370770308</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.79365307401838</v>
+        <v>87.79365307401839</v>
       </c>
       <c r="K43" t="n">
-        <v>278.0915730817342</v>
+        <v>278.0915730817343</v>
       </c>
       <c r="L43" t="n">
-        <v>423.1479911205233</v>
+        <v>423.1479911205234</v>
       </c>
       <c r="M43" t="n">
         <v>464.8776857071369</v>
       </c>
       <c r="N43" t="n">
-        <v>447.4607367688429</v>
+        <v>447.4607367688432</v>
       </c>
       <c r="O43" t="n">
         <v>424.5869219523504</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785919</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>668.717214551055</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>139.5538236303737</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>1.879326147397251</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>1.909735609237032</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>1.803309182076418</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>668.7172145510549</v>
       </c>
       <c r="Q44" t="n">
-        <v>513.9713637903242</v>
+        <v>553.17476270115</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>171.535004334004</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562335</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>531.2372930412282</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>1.243384859458843</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108056</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>1.362486586628961</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>668.717214551055</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>0.7309862225974939</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453262</v>
+        <v>87.79365307401828</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572664</v>
+        <v>278.0915730817343</v>
       </c>
       <c r="L46" t="n">
-        <v>547.556245844706</v>
+        <v>423.1479911205234</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>464.8776857071371</v>
       </c>
       <c r="N46" t="n">
-        <v>193.434628097431</v>
+        <v>447.4607367688432</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561043</v>
+        <v>424.5869219523504</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485103</v>
+        <v>351.5977150790518</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>170.2937040649635</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027015</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
